--- a/capiq_data/in_process_data/IQ31348.xlsx
+++ b/capiq_data/in_process_data/IQ31348.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD3C93-5C1E-4437-869C-E7EDC1E22B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB0B428-F060-4074-85CA-BE088F0CDFA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"86625736-2550-48ea-9dc9-685e4029242b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"dceba727-dc6f-40f5-a350-e7211eb1311a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40571</v>
+        <v>36917</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>924</v>
+        <v>302.8</v>
       </c>
       <c r="D2">
-        <v>3857</v>
+        <v>1361.6</v>
       </c>
       <c r="E2">
-        <v>3472</v>
+        <v>1213.3</v>
       </c>
       <c r="F2">
-        <v>2923</v>
+        <v>1016.2</v>
       </c>
       <c r="G2">
-        <v>9986</v>
+        <v>3081.4</v>
       </c>
       <c r="H2">
-        <v>30597</v>
+        <v>6512.2</v>
       </c>
       <c r="I2">
-        <v>486</v>
+        <v>181.4</v>
       </c>
       <c r="J2">
-        <v>7054</v>
+        <v>15.9</v>
       </c>
       <c r="K2">
-        <v>3674</v>
+        <v>151.9</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6414</v>
+        <v>949.4</v>
       </c>
       <c r="O2">
-        <v>15239</v>
+        <v>1153.5</v>
       </c>
       <c r="P2">
-        <v>10758</v>
+        <v>167.8</v>
       </c>
       <c r="Q2">
-        <v>27</v>
+        <v>-147.19999999999999</v>
       </c>
       <c r="R2">
-        <v>40571</v>
+        <v>36917</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>15358</v>
+        <v>5358.7</v>
       </c>
       <c r="U2">
-        <v>1283</v>
+        <v>448.8</v>
       </c>
       <c r="V2">
-        <v>1245</v>
+        <v>366.4</v>
       </c>
       <c r="W2">
-        <v>-240</v>
+        <v>-60.4</v>
       </c>
       <c r="X2">
-        <v>-394</v>
+        <v>-19.2</v>
       </c>
       <c r="Y2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>204</v>
+        <v>-315</v>
       </c>
       <c r="AA2">
-        <v>924</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40662</v>
+        <v>37008</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>776</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>4167</v>
+        <v>1517.9</v>
       </c>
       <c r="E3">
-        <v>3761</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="F3">
-        <v>3171</v>
+        <v>1120.5</v>
       </c>
       <c r="G3">
-        <v>9150</v>
+        <v>3756.8</v>
       </c>
       <c r="H3">
-        <v>30675</v>
+        <v>7038.9</v>
       </c>
       <c r="I3">
-        <v>495</v>
+        <v>205.9</v>
       </c>
       <c r="J3">
-        <v>8080</v>
+        <v>13.3</v>
       </c>
       <c r="K3">
-        <v>1500</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,164 +975,164 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4726</v>
+        <v>1359.3</v>
       </c>
       <c r="O3">
-        <v>14707</v>
+        <v>1529.4</v>
       </c>
       <c r="P3">
-        <v>9835</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="Q3">
-        <v>99</v>
+        <v>581.5</v>
       </c>
       <c r="R3">
-        <v>40662</v>
+        <v>37008</v>
       </c>
       <c r="S3">
-        <v>45499</v>
+        <v>23290</v>
       </c>
       <c r="T3">
-        <v>15968</v>
+        <v>5509.5</v>
       </c>
       <c r="U3">
-        <v>1382</v>
+        <v>1030.3</v>
       </c>
       <c r="V3">
-        <v>793</v>
+        <v>560.9</v>
       </c>
       <c r="W3">
-        <v>-241</v>
+        <v>-60.4</v>
       </c>
       <c r="X3">
-        <v>-1185</v>
+        <v>-36.4</v>
       </c>
       <c r="Y3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>622</v>
+        <v>205</v>
       </c>
       <c r="AA3">
-        <v>776</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40753</v>
+        <v>37099</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>821</v>
+        <v>301.5</v>
       </c>
       <c r="D4">
-        <v>3946</v>
+        <v>1455.7</v>
       </c>
       <c r="E4">
-        <v>3745</v>
+        <v>1246.4000000000001</v>
       </c>
       <c r="F4">
-        <v>2995</v>
+        <v>1077.5999999999999</v>
       </c>
       <c r="G4">
-        <v>9285</v>
+        <v>3912.9</v>
       </c>
       <c r="H4">
-        <v>31091</v>
+        <v>7273.7</v>
       </c>
       <c r="I4">
-        <v>537</v>
+        <v>200.6</v>
       </c>
       <c r="J4">
-        <v>8195</v>
+        <v>13.9</v>
       </c>
       <c r="K4">
-        <v>1857</v>
+        <v>127.9</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-16.3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4805</v>
+        <v>1319.9</v>
       </c>
       <c r="O4">
-        <v>14751</v>
+        <v>1501.2</v>
       </c>
       <c r="P4">
-        <v>10052</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>139.9</v>
       </c>
       <c r="R4">
-        <v>40753</v>
+        <v>37099</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>16340</v>
+        <v>5772.5</v>
       </c>
       <c r="U4">
-        <v>1393</v>
+        <v>1170.2</v>
       </c>
       <c r="V4">
-        <v>1115</v>
+        <v>377</v>
       </c>
       <c r="W4">
-        <v>-257</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="X4">
-        <v>-497</v>
+        <v>-77.2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-421</v>
+        <v>-44</v>
       </c>
       <c r="AA4">
-        <v>821</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40844</v>
+        <v>37190</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>871</v>
+        <v>66.7</v>
       </c>
       <c r="D5">
-        <v>4023</v>
+        <v>1571.2</v>
       </c>
       <c r="E5">
-        <v>3837</v>
+        <v>1398.3</v>
       </c>
       <c r="F5">
-        <v>3063</v>
+        <v>1166.2</v>
       </c>
       <c r="G5">
-        <v>9014</v>
+        <v>3127.9</v>
       </c>
       <c r="H5">
-        <v>31753</v>
+        <v>9718.4</v>
       </c>
       <c r="I5">
-        <v>543</v>
+        <v>234.3</v>
       </c>
       <c r="J5">
-        <v>8232</v>
+        <v>14.1</v>
       </c>
       <c r="K5">
-        <v>2050</v>
+        <v>2282.3000000000002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4734</v>
+        <v>3559.4</v>
       </c>
       <c r="O5">
-        <v>15014</v>
+        <v>3886.9</v>
       </c>
       <c r="P5">
-        <v>10282</v>
+        <v>2296.4</v>
       </c>
       <c r="Q5">
-        <v>-345</v>
+        <v>-887.1</v>
       </c>
       <c r="R5">
-        <v>40844</v>
+        <v>37190</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>16739</v>
+        <v>5831.5</v>
       </c>
       <c r="U5">
-        <v>1048</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="V5">
-        <v>1172</v>
+        <v>359.9</v>
       </c>
       <c r="W5">
-        <v>-257</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="X5">
-        <v>-347</v>
+        <v>2067.9</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-437</v>
+        <v>479</v>
       </c>
       <c r="AA5">
-        <v>871</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40935</v>
+        <v>37281</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>934</v>
+        <v>314.89999999999998</v>
       </c>
       <c r="D6">
-        <v>3918</v>
+        <v>1592.4</v>
       </c>
       <c r="E6">
-        <v>3665</v>
+        <v>1417.2</v>
       </c>
       <c r="F6">
-        <v>2987</v>
+        <v>1179.5999999999999</v>
       </c>
       <c r="G6">
-        <v>9308</v>
+        <v>3313</v>
       </c>
       <c r="H6">
-        <v>31911</v>
+        <v>10145.5</v>
       </c>
       <c r="I6">
-        <v>491</v>
+        <v>211.2</v>
       </c>
       <c r="J6">
-        <v>8291</v>
+        <v>13.6</v>
       </c>
       <c r="K6">
-        <v>1972</v>
+        <v>2364.6</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4562</v>
+        <v>3643.7</v>
       </c>
       <c r="O6">
-        <v>14742</v>
+        <v>3982.3</v>
       </c>
       <c r="P6">
-        <v>10263</v>
+        <v>2378.1999999999998</v>
       </c>
       <c r="Q6">
-        <v>142</v>
+        <v>175.7</v>
       </c>
       <c r="R6">
-        <v>40935</v>
+        <v>37281</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>17169</v>
+        <v>6163.2</v>
       </c>
       <c r="U6">
-        <v>1190</v>
+        <v>458.8</v>
       </c>
       <c r="V6">
-        <v>1139</v>
+        <v>424.5</v>
       </c>
       <c r="W6">
-        <v>-255</v>
+        <v>-69.8</v>
       </c>
       <c r="X6">
-        <v>-502</v>
+        <v>113</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-361</v>
+        <v>-172</v>
       </c>
       <c r="AA6">
-        <v>935</v>
+        <v>314.89999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41026</v>
+        <v>37372</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1791.5</v>
       </c>
       <c r="E7">
-        <v>3808</v>
+        <v>1522.5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1344.7</v>
       </c>
       <c r="G7">
-        <v>16336</v>
+        <v>3488</v>
       </c>
       <c r="H7">
-        <v>32818</v>
+        <v>10904.5</v>
       </c>
       <c r="I7">
-        <v>565</v>
+        <v>268.2</v>
       </c>
       <c r="J7">
-        <v>7239</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>950</v>
+        <v>2511.4</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,164 +1307,164 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5927</v>
+        <v>3984.9</v>
       </c>
       <c r="O7">
-        <v>15705</v>
+        <v>4473.3999999999996</v>
       </c>
       <c r="P7">
-        <v>10678</v>
+        <v>2525.6</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-48.1</v>
       </c>
       <c r="R7">
-        <v>41026</v>
+        <v>37372</v>
       </c>
       <c r="S7">
-        <v>44944</v>
+        <v>28000</v>
       </c>
       <c r="T7">
-        <v>17113</v>
+        <v>6431.1</v>
       </c>
       <c r="U7">
-        <v>1172</v>
+        <v>410.7</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>428.8</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-69.8</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="Y7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>300.89999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41117</v>
+        <v>37463</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>864</v>
+        <v>383.3</v>
       </c>
       <c r="D8">
-        <v>4008</v>
+        <v>1713.9</v>
       </c>
       <c r="E8">
-        <v>3448</v>
+        <v>1576.7</v>
       </c>
       <c r="F8">
-        <v>3035</v>
+        <v>1299.7</v>
       </c>
       <c r="G8">
-        <v>9183</v>
+        <v>4012</v>
       </c>
       <c r="H8">
-        <v>33252</v>
+        <v>11191.6</v>
       </c>
       <c r="I8">
-        <v>521</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="J8">
-        <v>7480</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K8">
-        <v>3391</v>
+        <v>2508.5</v>
       </c>
       <c r="L8">
-        <v>-484</v>
+        <v>-26.5</v>
       </c>
       <c r="M8">
-        <v>-6</v>
+        <v>-0.8</v>
       </c>
       <c r="N8">
-        <v>5811</v>
+        <v>3893.4</v>
       </c>
       <c r="O8">
-        <v>15997</v>
+        <v>4460.3</v>
       </c>
       <c r="P8">
-        <v>10871</v>
+        <v>2518.1999999999998</v>
       </c>
       <c r="Q8">
-        <v>-363</v>
+        <v>461.4</v>
       </c>
       <c r="R8">
-        <v>41117</v>
+        <v>37463</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>17255</v>
+        <v>6731.3</v>
       </c>
       <c r="U8">
-        <v>861</v>
+        <v>872.1</v>
       </c>
       <c r="V8">
-        <v>1332</v>
+        <v>332.2</v>
       </c>
       <c r="W8">
-        <v>-267</v>
+        <v>-76</v>
       </c>
       <c r="X8">
-        <v>-643</v>
+        <v>-150</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-845</v>
+        <v>401</v>
       </c>
       <c r="AA8">
-        <v>864</v>
+        <v>383.3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41208</v>
+        <v>37554</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>646</v>
+        <v>301.7</v>
       </c>
       <c r="D9">
-        <v>4095</v>
+        <v>1891</v>
       </c>
       <c r="E9">
-        <v>3612</v>
+        <v>1642.1</v>
       </c>
       <c r="F9">
-        <v>3075</v>
+        <v>1430.3</v>
       </c>
       <c r="G9">
-        <v>9435</v>
+        <v>4194.6000000000004</v>
       </c>
       <c r="H9">
-        <v>33960</v>
+        <v>11449.9</v>
       </c>
       <c r="I9">
-        <v>551</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="J9">
-        <v>7441</v>
+        <v>1983.1</v>
       </c>
       <c r="K9">
-        <v>4097</v>
+        <v>405.3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6621</v>
+        <v>1699.7</v>
       </c>
       <c r="O9">
-        <v>16785</v>
+        <v>4268.8</v>
       </c>
       <c r="P9">
-        <v>11538</v>
+        <v>2388.4</v>
       </c>
       <c r="Q9">
-        <v>875</v>
+        <v>118.8</v>
       </c>
       <c r="R9">
-        <v>41208</v>
+        <v>37554</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>17175</v>
+        <v>7181.1</v>
       </c>
       <c r="U9">
-        <v>1759</v>
+        <v>990.9</v>
       </c>
       <c r="V9">
-        <v>894</v>
+        <v>424.8</v>
       </c>
       <c r="W9">
-        <v>-266</v>
+        <v>-75.900000000000006</v>
       </c>
       <c r="X9">
-        <v>-119</v>
+        <v>-234.6</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>158</v>
+        <v>-21</v>
       </c>
       <c r="AA9">
-        <v>646</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41299</v>
+        <v>37645</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>988</v>
+        <v>427.7</v>
       </c>
       <c r="D10">
-        <v>4027</v>
+        <v>1912.5</v>
       </c>
       <c r="E10">
-        <v>3532</v>
+        <v>1721.6</v>
       </c>
       <c r="F10">
-        <v>3028</v>
+        <v>1437.7</v>
       </c>
       <c r="G10">
-        <v>9161</v>
+        <v>4577.8</v>
       </c>
       <c r="H10">
-        <v>34949</v>
+        <v>11913.2</v>
       </c>
       <c r="I10">
-        <v>569</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="J10">
-        <v>7233</v>
+        <v>1984.1</v>
       </c>
       <c r="K10">
-        <v>4104</v>
+        <v>419.6</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6958</v>
+        <v>1752.4</v>
       </c>
       <c r="O10">
-        <v>17113</v>
+        <v>4340.3999999999996</v>
       </c>
       <c r="P10">
-        <v>11492</v>
+        <v>2403.6999999999998</v>
       </c>
       <c r="Q10">
-        <v>-492</v>
+        <v>477.7</v>
       </c>
       <c r="R10">
-        <v>41299</v>
+        <v>37645</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>17836</v>
+        <v>7572.8</v>
       </c>
       <c r="U10">
-        <v>1298</v>
+        <v>1468.6</v>
       </c>
       <c r="V10">
-        <v>1446</v>
+        <v>650.1</v>
       </c>
       <c r="W10">
-        <v>-264</v>
+        <v>-76.3</v>
       </c>
       <c r="X10">
-        <v>-387</v>
+        <v>-94</v>
       </c>
       <c r="Y10">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-667</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA10">
-        <v>988</v>
+        <v>427.7</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41390</v>
+        <v>37736</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>969</v>
+        <v>487.1</v>
       </c>
       <c r="D11">
-        <v>4439</v>
+        <v>2147.8000000000002</v>
       </c>
       <c r="E11">
-        <v>3727</v>
+        <v>1761.4</v>
       </c>
       <c r="F11">
-        <v>3336</v>
+        <v>1607.2</v>
       </c>
       <c r="G11">
-        <v>17852</v>
+        <v>4690.2</v>
       </c>
       <c r="H11">
-        <v>34900</v>
+        <v>12405.5</v>
       </c>
       <c r="I11">
-        <v>681</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="J11">
-        <v>9607</v>
+        <v>1980.3</v>
       </c>
       <c r="K11">
-        <v>125</v>
+        <v>380.7</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,164 +1639,164 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3950</v>
+        <v>1898</v>
       </c>
       <c r="O11">
-        <v>16229</v>
+        <v>4499.1000000000004</v>
       </c>
       <c r="P11">
-        <v>10669</v>
+        <v>2365.6</v>
       </c>
       <c r="Q11">
-        <v>-273</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
-        <v>41390</v>
+        <v>37736</v>
       </c>
       <c r="S11">
-        <v>46659</v>
+        <v>30000</v>
       </c>
       <c r="T11">
-        <v>18671</v>
+        <v>7906.4</v>
       </c>
       <c r="U11">
-        <v>919</v>
+        <v>1470.1</v>
       </c>
       <c r="V11">
-        <v>1270</v>
+        <v>671.1</v>
       </c>
       <c r="W11">
-        <v>-258</v>
+        <v>-76</v>
       </c>
       <c r="X11">
-        <v>-952</v>
+        <v>-265.2</v>
       </c>
       <c r="Y11">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-456</v>
+        <v>-259.7</v>
       </c>
       <c r="AA11">
-        <v>969</v>
+        <v>487.1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41481</v>
+        <v>37827</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>953</v>
+        <v>450.4</v>
       </c>
       <c r="D12">
-        <v>4083</v>
+        <v>2064.1999999999998</v>
       </c>
       <c r="E12">
-        <v>3627</v>
+        <v>1774.7</v>
       </c>
       <c r="F12">
-        <v>3061</v>
+        <v>1550.2</v>
       </c>
       <c r="G12">
-        <v>18090</v>
+        <v>4367.6000000000004</v>
       </c>
       <c r="H12">
-        <v>34972</v>
+        <v>12626.9</v>
       </c>
       <c r="I12">
-        <v>627</v>
+        <v>269.5</v>
       </c>
       <c r="J12">
-        <v>9652</v>
+        <v>1979.6</v>
       </c>
       <c r="K12">
-        <v>1543</v>
+        <v>408.6</v>
       </c>
       <c r="L12">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-4</v>
+        <v>-0.8</v>
       </c>
       <c r="N12">
-        <v>4285</v>
+        <v>1813.2</v>
       </c>
       <c r="O12">
-        <v>16453</v>
+        <v>4450.2</v>
       </c>
       <c r="P12">
-        <v>11195</v>
+        <v>2388.1999999999998</v>
       </c>
       <c r="Q12">
-        <v>-91</v>
+        <v>-296.89999999999998</v>
       </c>
       <c r="R12">
-        <v>41481</v>
+        <v>37827</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>18519</v>
+        <v>8176.7</v>
       </c>
       <c r="U12">
-        <v>828</v>
+        <v>1173.2</v>
       </c>
       <c r="V12">
-        <v>983</v>
+        <v>580.20000000000005</v>
       </c>
       <c r="W12">
-        <v>-281</v>
+        <v>-88.3</v>
       </c>
       <c r="X12">
-        <v>-422</v>
+        <v>-186.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-562</v>
+        <v>-605.9</v>
       </c>
       <c r="AA12">
-        <v>953</v>
+        <v>450.4</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41572</v>
+        <v>37918</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>902</v>
+        <v>476.1</v>
       </c>
       <c r="D13">
-        <v>4194</v>
+        <v>2163.8000000000002</v>
       </c>
       <c r="E13">
-        <v>3792</v>
+        <v>1930.2</v>
       </c>
       <c r="F13">
-        <v>3104</v>
+        <v>1627.8</v>
       </c>
       <c r="G13">
-        <v>19483</v>
+        <v>4393</v>
       </c>
       <c r="H13">
-        <v>36468</v>
+        <v>12901.1</v>
       </c>
       <c r="I13">
-        <v>620</v>
+        <v>294</v>
       </c>
       <c r="J13">
-        <v>9641</v>
+        <v>2.1</v>
       </c>
       <c r="K13">
-        <v>2647</v>
+        <v>2464.1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5496</v>
+        <v>3947</v>
       </c>
       <c r="O13">
-        <v>17724</v>
+        <v>4599.2</v>
       </c>
       <c r="P13">
-        <v>12288</v>
+        <v>2466.1999999999998</v>
       </c>
       <c r="Q13">
-        <v>238</v>
+        <v>-202.2</v>
       </c>
       <c r="R13">
-        <v>41572</v>
+        <v>37918</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>18744</v>
+        <v>8301.9</v>
       </c>
       <c r="U13">
-        <v>1066</v>
+        <v>971</v>
       </c>
       <c r="V13">
-        <v>1036</v>
+        <v>525.5</v>
       </c>
       <c r="W13">
-        <v>-279</v>
+        <v>-88</v>
       </c>
       <c r="X13">
-        <v>363</v>
+        <v>-352.8</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-866</v>
+        <v>-311.7</v>
       </c>
       <c r="AA13">
-        <v>902</v>
+        <v>476.1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41663</v>
+        <v>38009</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>762</v>
+        <v>463.9</v>
       </c>
       <c r="D14">
-        <v>4163</v>
+        <v>2193.8000000000002</v>
       </c>
       <c r="E14">
-        <v>3619</v>
+        <v>1979.5</v>
       </c>
       <c r="F14">
-        <v>3113</v>
+        <v>1655.4</v>
       </c>
       <c r="G14">
-        <v>20386</v>
+        <v>4636.2</v>
       </c>
       <c r="H14">
-        <v>37231</v>
+        <v>13437.7</v>
       </c>
       <c r="I14">
-        <v>567</v>
+        <v>291.89999999999998</v>
       </c>
       <c r="J14">
-        <v>9615</v>
+        <v>2.1</v>
       </c>
       <c r="K14">
-        <v>2618</v>
+        <v>2463.8000000000002</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5632</v>
+        <v>4074.4</v>
       </c>
       <c r="O14">
-        <v>17877</v>
+        <v>4750.2</v>
       </c>
       <c r="P14">
-        <v>12233</v>
+        <v>2465.9</v>
       </c>
       <c r="Q14">
-        <v>238</v>
+        <v>296.5</v>
       </c>
       <c r="R14">
-        <v>41663</v>
+        <v>38009</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>19354</v>
+        <v>8687.5</v>
       </c>
       <c r="U14">
-        <v>1304</v>
+        <v>1267.5</v>
       </c>
       <c r="V14">
-        <v>1612</v>
+        <v>759.9</v>
       </c>
       <c r="W14">
-        <v>-279</v>
+        <v>-87.6</v>
       </c>
       <c r="X14">
-        <v>-142</v>
+        <v>-131.4</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-958</v>
+        <v>-193.5</v>
       </c>
       <c r="AA14">
-        <v>762</v>
+        <v>463.9</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41754</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>448</v>
+        <v>568.9</v>
       </c>
       <c r="D15">
-        <v>4453</v>
+        <v>2665.4</v>
       </c>
       <c r="E15">
-        <v>3811</v>
+        <v>1994.3</v>
       </c>
       <c r="F15">
-        <v>3404</v>
+        <v>2000.9</v>
       </c>
       <c r="G15">
-        <v>21210</v>
+        <v>5312.7</v>
       </c>
       <c r="H15">
-        <v>37943</v>
+        <v>14110.8</v>
       </c>
       <c r="I15">
-        <v>742</v>
+        <v>346.2</v>
       </c>
       <c r="J15">
-        <v>10187</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K15">
-        <v>337</v>
+        <v>378.4</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,164 +1971,164 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5559</v>
+        <v>4240.6000000000004</v>
       </c>
       <c r="O15">
-        <v>18500</v>
+        <v>5033.8</v>
       </c>
       <c r="P15">
-        <v>11939</v>
+        <v>2359.3000000000002</v>
       </c>
       <c r="Q15">
-        <v>99</v>
+        <v>326.2</v>
       </c>
       <c r="R15">
-        <v>41754</v>
+        <v>38107</v>
       </c>
       <c r="S15">
-        <v>49247</v>
+        <v>30900</v>
       </c>
       <c r="T15">
-        <v>19443</v>
+        <v>9077</v>
       </c>
       <c r="U15">
-        <v>1403</v>
+        <v>1593.7</v>
       </c>
       <c r="V15">
-        <v>1328</v>
+        <v>980.2</v>
       </c>
       <c r="W15">
-        <v>-277</v>
+        <v>-87.6</v>
       </c>
       <c r="X15">
-        <v>-717</v>
+        <v>-339.1</v>
       </c>
       <c r="Y15">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-398</v>
+        <v>-99.7</v>
       </c>
       <c r="AA15">
-        <v>448</v>
+        <v>568.9</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41845</v>
+        <v>38198</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>871</v>
+        <v>529.70000000000005</v>
       </c>
       <c r="D16">
-        <v>4273</v>
+        <v>2346.1</v>
       </c>
       <c r="E16">
-        <v>3690</v>
+        <v>1987.3</v>
       </c>
       <c r="F16">
-        <v>3168</v>
+        <v>1795.8</v>
       </c>
       <c r="G16">
-        <v>20770</v>
+        <v>5873.7</v>
       </c>
       <c r="H16">
-        <v>37554</v>
+        <v>14557</v>
       </c>
       <c r="I16">
-        <v>685</v>
+        <v>288.5</v>
       </c>
       <c r="J16">
-        <v>10187</v>
+        <v>1.6</v>
       </c>
       <c r="K16">
-        <v>2477</v>
+        <v>2349.4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5433</v>
+        <v>4298.3</v>
       </c>
       <c r="O16">
-        <v>18306</v>
+        <v>5108.8999999999996</v>
       </c>
       <c r="P16">
-        <v>12800</v>
+        <v>2351</v>
       </c>
       <c r="Q16">
-        <v>-67</v>
+        <v>557.20000000000005</v>
       </c>
       <c r="R16">
-        <v>41845</v>
+        <v>38198</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>19248</v>
+        <v>9448.1</v>
       </c>
       <c r="U16">
-        <v>1336</v>
+        <v>2150.9</v>
       </c>
       <c r="V16">
-        <v>310</v>
+        <v>661.1</v>
       </c>
       <c r="W16">
-        <v>-304</v>
+        <v>-101.2</v>
       </c>
       <c r="X16">
-        <v>-355</v>
+        <v>-182.3</v>
       </c>
       <c r="Y16">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="AA16">
-        <v>871</v>
+        <v>529.70000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41936</v>
+        <v>38289</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>828</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="D17">
-        <v>4366</v>
+        <v>2399.8000000000002</v>
       </c>
       <c r="E17">
-        <v>3750</v>
+        <v>2126.1</v>
       </c>
       <c r="F17">
-        <v>3224</v>
+        <v>1815</v>
       </c>
       <c r="G17">
-        <v>21597</v>
+        <v>6369.6</v>
       </c>
       <c r="H17">
-        <v>38780</v>
+        <v>15180.3</v>
       </c>
       <c r="I17">
-        <v>723</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="J17">
-        <v>9606</v>
+        <v>1974.8</v>
       </c>
       <c r="K17">
-        <v>3970</v>
+        <v>390.7</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6952</v>
+        <v>2487.6</v>
       </c>
       <c r="O17">
-        <v>19342</v>
+        <v>5255</v>
       </c>
       <c r="P17">
-        <v>13708</v>
+        <v>2365.5</v>
       </c>
       <c r="Q17">
-        <v>-49</v>
+        <v>146.5</v>
       </c>
       <c r="R17">
-        <v>41936</v>
+        <v>38289</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>19438</v>
+        <v>9925.2999999999993</v>
       </c>
       <c r="U17">
-        <v>1287</v>
+        <v>2297.4</v>
       </c>
       <c r="V17">
-        <v>913</v>
+        <v>660.4</v>
       </c>
       <c r="W17">
-        <v>-298</v>
+        <v>-101.3</v>
       </c>
       <c r="X17">
-        <v>228</v>
+        <v>-145.5</v>
       </c>
       <c r="Y17">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-612</v>
+        <v>-184.5</v>
       </c>
       <c r="AA17">
-        <v>828</v>
+        <v>535.70000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42027</v>
+        <v>38380</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>977</v>
+        <v>544.1</v>
       </c>
       <c r="D18">
-        <v>4318</v>
+        <v>2530.6999999999998</v>
       </c>
       <c r="E18">
-        <v>3568</v>
+        <v>2202.9</v>
       </c>
       <c r="F18">
-        <v>3190</v>
+        <v>1925.1</v>
       </c>
       <c r="G18">
-        <v>38161</v>
+        <v>6728.2</v>
       </c>
       <c r="H18">
-        <v>55233</v>
+        <v>15695.4</v>
       </c>
       <c r="I18">
-        <v>635</v>
+        <v>344.8</v>
       </c>
       <c r="J18">
-        <v>26584</v>
+        <v>1974.9</v>
       </c>
       <c r="K18">
-        <v>2185</v>
+        <v>413.7</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5613</v>
+        <v>2655.9</v>
       </c>
       <c r="O18">
-        <v>35060</v>
+        <v>5463.3</v>
       </c>
       <c r="P18">
-        <v>28899</v>
+        <v>2388.6</v>
       </c>
       <c r="Q18">
-        <v>15944</v>
+        <v>-111.9</v>
       </c>
       <c r="R18">
-        <v>42027</v>
+        <v>38380</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>20173</v>
+        <v>10232.1</v>
       </c>
       <c r="U18">
-        <v>17231</v>
+        <v>2185.5</v>
       </c>
       <c r="V18">
-        <v>1767</v>
+        <v>702.5</v>
       </c>
       <c r="W18">
-        <v>-300</v>
+        <v>-101.1</v>
       </c>
       <c r="X18">
-        <v>14925</v>
+        <v>-228.2</v>
       </c>
       <c r="Y18">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-617</v>
+        <v>-446.5</v>
       </c>
       <c r="AA18">
-        <v>977</v>
+        <v>544.1</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42118</v>
+        <v>38471</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>194.4</v>
       </c>
       <c r="D19">
-        <v>7169</v>
+        <v>2778</v>
       </c>
       <c r="E19">
-        <v>5112</v>
+        <v>2292.6999999999998</v>
       </c>
       <c r="F19">
-        <v>4998</v>
+        <v>2072.3000000000002</v>
       </c>
       <c r="G19">
-        <v>30844</v>
+        <v>7421.5</v>
       </c>
       <c r="H19">
-        <v>106685</v>
+        <v>16617.400000000001</v>
       </c>
       <c r="I19">
-        <v>1610</v>
+        <v>371.8</v>
       </c>
       <c r="J19">
-        <v>33694</v>
+        <v>1973.2</v>
       </c>
       <c r="K19">
-        <v>1303</v>
+        <v>478.1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9173</v>
+        <v>3380</v>
       </c>
       <c r="O19">
-        <v>53455</v>
+        <v>6167.9</v>
       </c>
       <c r="P19">
-        <v>36257</v>
+        <v>2451.8000000000002</v>
       </c>
       <c r="Q19">
-        <v>-12388</v>
+        <v>46.7</v>
       </c>
       <c r="R19">
-        <v>42118</v>
+        <v>38471</v>
       </c>
       <c r="S19">
-        <v>92500</v>
+        <v>33000</v>
       </c>
       <c r="T19">
-        <v>53230</v>
+        <v>10449.5</v>
       </c>
       <c r="U19">
-        <v>4843</v>
+        <v>2232.1999999999998</v>
       </c>
       <c r="V19">
-        <v>1912</v>
+        <v>795.4</v>
       </c>
       <c r="W19">
-        <v>-435</v>
+        <v>-101.3</v>
       </c>
       <c r="X19">
-        <v>1151</v>
+        <v>67.2</v>
       </c>
       <c r="Y19">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-716</v>
+        <v>-533.79999999999995</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>820</v>
+        <v>321</v>
       </c>
       <c r="D20">
-        <v>7274</v>
+        <v>2690</v>
       </c>
       <c r="E20">
-        <v>4811</v>
+        <v>2259.8000000000002</v>
       </c>
       <c r="F20">
-        <v>5044</v>
+        <v>2036</v>
       </c>
       <c r="G20">
-        <v>29147</v>
+        <v>7134.1</v>
       </c>
       <c r="H20">
-        <v>104626</v>
+        <v>16917.3</v>
       </c>
       <c r="I20">
-        <v>1321</v>
+        <v>343.7</v>
       </c>
       <c r="J20">
-        <v>33625</v>
+        <v>1973</v>
       </c>
       <c r="K20">
-        <v>1850</v>
+        <v>1458.6</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-1004</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>7660</v>
+        <v>3602.5</v>
       </c>
       <c r="O20">
-        <v>51817</v>
+        <v>6336.5</v>
       </c>
       <c r="P20">
-        <v>35600</v>
+        <v>3432.2</v>
       </c>
       <c r="Q20">
-        <v>-1864</v>
+        <v>-642</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>52809</v>
+        <v>10580.8</v>
       </c>
       <c r="U20">
-        <v>2979</v>
+        <v>1589.6</v>
       </c>
       <c r="V20">
-        <v>816</v>
+        <v>-12</v>
       </c>
       <c r="W20">
-        <v>-538</v>
+        <v>-117</v>
       </c>
       <c r="X20">
-        <v>-1744</v>
+        <v>759</v>
       </c>
       <c r="Y20">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-585</v>
+        <v>-364</v>
       </c>
       <c r="AA20">
-        <v>820</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42307</v>
+        <v>38653</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>520</v>
+        <v>816</v>
       </c>
       <c r="D21">
-        <v>7058</v>
+        <v>2765</v>
       </c>
       <c r="E21">
-        <v>5044</v>
+        <v>2316.1999999999998</v>
       </c>
       <c r="F21">
-        <v>4876</v>
+        <v>2070</v>
       </c>
       <c r="G21">
-        <v>28723</v>
+        <v>8119</v>
       </c>
       <c r="H21">
-        <v>104945</v>
+        <v>17767.5</v>
       </c>
       <c r="I21">
-        <v>1447</v>
+        <v>340.7</v>
       </c>
       <c r="J21">
-        <v>33645</v>
+        <v>1001.2</v>
       </c>
       <c r="K21">
-        <v>2158</v>
+        <v>2834.8</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8126</v>
+        <v>4899.1000000000004</v>
       </c>
       <c r="O21">
-        <v>52676</v>
+        <v>6633.8</v>
       </c>
       <c r="P21">
-        <v>35924</v>
+        <v>3836.3</v>
       </c>
       <c r="Q21">
-        <v>-601</v>
+        <v>358</v>
       </c>
       <c r="R21">
-        <v>42307</v>
+        <v>38653</v>
       </c>
       <c r="S21">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>52269</v>
+        <v>11133.7</v>
       </c>
       <c r="U21">
-        <v>2378</v>
+        <v>1947.8</v>
       </c>
       <c r="V21">
-        <v>1279</v>
+        <v>1031</v>
       </c>
       <c r="W21">
-        <v>-537</v>
+        <v>-115</v>
       </c>
       <c r="X21">
-        <v>-781</v>
+        <v>79</v>
       </c>
       <c r="Y21">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-33</v>
+        <v>-545</v>
       </c>
       <c r="AA21">
-        <v>520</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42398</v>
+        <v>38744</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1095</v>
+        <v>670</v>
       </c>
       <c r="D22">
-        <v>6934</v>
+        <v>2770</v>
       </c>
       <c r="E22">
-        <v>4863</v>
+        <v>2364.6</v>
       </c>
       <c r="F22">
-        <v>4793</v>
+        <v>2071</v>
       </c>
       <c r="G22">
-        <v>27569</v>
+        <v>8925.5</v>
       </c>
       <c r="H22">
-        <v>102706</v>
+        <v>18339</v>
       </c>
       <c r="I22">
-        <v>1437</v>
+        <v>310.89999999999998</v>
       </c>
       <c r="J22">
-        <v>33610</v>
+        <v>1002.5</v>
       </c>
       <c r="K22">
-        <v>2153</v>
+        <v>1051.5999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8141</v>
+        <v>4871.5</v>
       </c>
       <c r="O22">
-        <v>51890</v>
+        <v>6601.4</v>
       </c>
       <c r="P22">
-        <v>35880</v>
+        <v>4025.7</v>
       </c>
       <c r="Q22">
-        <v>343</v>
+        <v>-580</v>
       </c>
       <c r="R22">
-        <v>42398</v>
+        <v>38744</v>
       </c>
       <c r="S22">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>50816</v>
+        <v>11737.6</v>
       </c>
       <c r="U22">
-        <v>2721</v>
+        <v>1367.8</v>
       </c>
       <c r="V22">
-        <v>1797</v>
+        <v>493</v>
       </c>
       <c r="W22">
-        <v>-533</v>
+        <v>-118</v>
       </c>
       <c r="X22">
-        <v>-1152</v>
+        <v>108</v>
       </c>
       <c r="Y22">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>126</v>
+        <v>-1105</v>
       </c>
       <c r="AA22">
-        <v>1095</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1103</v>
+        <v>740</v>
       </c>
       <c r="D23">
-        <v>7567</v>
+        <v>3067</v>
       </c>
       <c r="E23">
-        <v>5562</v>
+        <v>2429</v>
       </c>
       <c r="F23">
-        <v>5204</v>
+        <v>2299</v>
       </c>
       <c r="G23">
-        <v>23600</v>
+        <v>10377</v>
       </c>
       <c r="H23">
-        <v>99644</v>
+        <v>19665</v>
       </c>
       <c r="I23">
-        <v>1709</v>
+        <v>319</v>
       </c>
       <c r="J23">
-        <v>30135</v>
+        <v>5486</v>
       </c>
       <c r="K23">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,164 +2635,164 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7165</v>
+        <v>4406</v>
       </c>
       <c r="O23">
-        <v>47581</v>
+        <v>10282</v>
       </c>
       <c r="P23">
-        <v>31154</v>
+        <v>7923</v>
       </c>
       <c r="Q23">
-        <v>155</v>
+        <v>1626</v>
       </c>
       <c r="R23">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="S23">
-        <v>98017</v>
+        <v>36000</v>
       </c>
       <c r="T23">
-        <v>52063</v>
+        <v>9383</v>
       </c>
       <c r="U23">
-        <v>2876</v>
+        <v>2994</v>
       </c>
       <c r="V23">
-        <v>1326</v>
+        <v>708</v>
       </c>
       <c r="W23">
-        <v>-531</v>
+        <v>-115</v>
       </c>
       <c r="X23">
-        <v>-5866</v>
+        <v>358</v>
       </c>
       <c r="Y23">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>5010</v>
+        <v>576</v>
       </c>
       <c r="AA23">
-        <v>1103</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42580</v>
+        <v>38926</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>929</v>
+        <v>599</v>
       </c>
       <c r="D24">
-        <v>7166</v>
+        <v>2897</v>
       </c>
       <c r="E24">
-        <v>5357</v>
+        <v>2444</v>
       </c>
       <c r="F24">
-        <v>4915</v>
+        <v>2165</v>
       </c>
       <c r="G24">
-        <v>23498</v>
+        <v>10431</v>
       </c>
       <c r="H24">
-        <v>98601</v>
+        <v>20181</v>
       </c>
       <c r="I24">
-        <v>1615</v>
+        <v>341</v>
       </c>
       <c r="J24">
-        <v>30180</v>
+        <v>5485</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2427</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="M24">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="N24">
-        <v>7896</v>
+        <v>4439</v>
       </c>
       <c r="O24">
-        <v>47709</v>
+        <v>10285</v>
       </c>
       <c r="P24">
-        <v>32152</v>
+        <v>7912</v>
       </c>
       <c r="Q24">
-        <v>184</v>
+        <v>-1598</v>
       </c>
       <c r="R24">
-        <v>42580</v>
+        <v>38926</v>
       </c>
       <c r="S24">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>50892</v>
+        <v>9896</v>
       </c>
       <c r="U24">
-        <v>3060</v>
+        <v>1396</v>
       </c>
       <c r="V24">
-        <v>1550</v>
+        <v>580</v>
       </c>
       <c r="W24">
-        <v>-599</v>
+        <v>-127</v>
       </c>
       <c r="X24">
-        <v>-1160</v>
+        <v>-173</v>
       </c>
       <c r="Y24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>60</v>
+        <v>-1882</v>
       </c>
       <c r="AA24">
-        <v>929</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42671</v>
+        <v>39017</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1115</v>
+        <v>681</v>
       </c>
       <c r="D25">
-        <v>7345</v>
+        <v>3075</v>
       </c>
       <c r="E25">
-        <v>5661</v>
+        <v>2590</v>
       </c>
       <c r="F25">
-        <v>5057</v>
+        <v>2280</v>
       </c>
       <c r="G25">
-        <v>22526</v>
+        <v>8423</v>
       </c>
       <c r="H25">
-        <v>98406</v>
+        <v>18896</v>
       </c>
       <c r="I25">
-        <v>1659</v>
+        <v>319</v>
       </c>
       <c r="J25">
-        <v>29047</v>
+        <v>5581</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9601</v>
+        <v>2695</v>
       </c>
       <c r="O25">
-        <v>48113</v>
+        <v>8619</v>
       </c>
       <c r="P25">
-        <v>32441</v>
+        <v>6110</v>
       </c>
       <c r="Q25">
-        <v>-106</v>
+        <v>-306</v>
       </c>
       <c r="R25">
-        <v>42671</v>
+        <v>39017</v>
       </c>
       <c r="S25">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>50293</v>
+        <v>10277</v>
       </c>
       <c r="U25">
-        <v>2954</v>
+        <v>1090</v>
       </c>
       <c r="V25">
-        <v>1472</v>
+        <v>727</v>
       </c>
       <c r="W25">
-        <v>-593</v>
+        <v>-127</v>
       </c>
       <c r="X25">
-        <v>-1491</v>
+        <v>-2168</v>
       </c>
       <c r="Y25">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1455</v>
+        <v>1394</v>
       </c>
       <c r="AA25">
-        <v>1115</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42762</v>
+        <v>39108</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>821</v>
+        <v>710</v>
       </c>
       <c r="D26">
-        <v>7283</v>
+        <v>3048</v>
       </c>
       <c r="E26">
-        <v>5453</v>
+        <v>2626</v>
       </c>
       <c r="F26">
-        <v>5015</v>
+        <v>2273</v>
       </c>
       <c r="G26">
-        <v>22423</v>
+        <v>8210</v>
       </c>
       <c r="H26">
-        <v>97578</v>
+        <v>19572</v>
       </c>
       <c r="I26">
-        <v>1557</v>
+        <v>345</v>
       </c>
       <c r="J26">
-        <v>25960</v>
+        <v>5577</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>12672</v>
+        <v>2703</v>
       </c>
       <c r="O26">
-        <v>48085</v>
+        <v>8588</v>
       </c>
       <c r="P26">
-        <v>32186</v>
+        <v>6128</v>
       </c>
       <c r="Q26">
-        <v>-186</v>
+        <v>997</v>
       </c>
       <c r="R26">
-        <v>42762</v>
+        <v>39108</v>
       </c>
       <c r="S26">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>49493</v>
+        <v>10984</v>
       </c>
       <c r="U26">
-        <v>2768</v>
+        <v>2087</v>
       </c>
       <c r="V26">
-        <v>2085</v>
+        <v>747</v>
       </c>
       <c r="W26">
-        <v>-590</v>
+        <v>-126</v>
       </c>
       <c r="X26">
-        <v>-1319</v>
+        <v>-13</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-583</v>
+        <v>386</v>
       </c>
       <c r="AA26">
-        <v>821</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42853</v>
+        <v>39199</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1215</v>
+        <v>812</v>
       </c>
       <c r="D27">
-        <v>7916</v>
+        <v>3280</v>
       </c>
       <c r="E27">
-        <v>5591</v>
+        <v>2737</v>
       </c>
       <c r="F27">
-        <v>5490</v>
+        <v>2422</v>
       </c>
       <c r="G27">
-        <v>26956</v>
+        <v>7918</v>
       </c>
       <c r="H27">
-        <v>99948</v>
+        <v>19512</v>
       </c>
       <c r="I27">
-        <v>1555</v>
+        <v>282</v>
       </c>
       <c r="J27">
-        <v>25909</v>
+        <v>5494</v>
       </c>
       <c r="K27">
-        <v>1339</v>
+        <v>504</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,164 +2967,164 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>13043</v>
+        <v>2563</v>
       </c>
       <c r="O27">
-        <v>49618</v>
+        <v>8535</v>
       </c>
       <c r="P27">
-        <v>33452</v>
+        <v>6087</v>
       </c>
       <c r="Q27">
-        <v>2199</v>
+        <v>-831</v>
       </c>
       <c r="R27">
-        <v>42853</v>
+        <v>39199</v>
       </c>
       <c r="S27">
-        <v>102688</v>
+        <v>37800</v>
       </c>
       <c r="T27">
-        <v>50330</v>
+        <v>10977</v>
       </c>
       <c r="U27">
-        <v>4967</v>
+        <v>1256</v>
       </c>
       <c r="V27">
-        <v>1773</v>
+        <v>925</v>
       </c>
       <c r="W27">
-        <v>-594</v>
+        <v>-124</v>
       </c>
       <c r="X27">
-        <v>687</v>
+        <v>-657</v>
       </c>
       <c r="Y27">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Z27">
-        <v>53</v>
+        <v>-841</v>
       </c>
       <c r="AA27">
-        <v>1215</v>
+        <v>812</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42944</v>
+        <v>39290</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1016</v>
+        <v>675</v>
       </c>
       <c r="D28">
-        <v>7390</v>
+        <v>3127</v>
       </c>
       <c r="E28">
-        <v>5784</v>
+        <v>2760</v>
       </c>
       <c r="F28">
-        <v>5043</v>
+        <v>2335</v>
       </c>
       <c r="G28">
-        <v>24779</v>
+        <v>7668</v>
       </c>
       <c r="H28">
-        <v>100250</v>
+        <v>19660</v>
       </c>
       <c r="I28">
-        <v>1759</v>
+        <v>317</v>
       </c>
       <c r="J28">
-        <v>25940</v>
+        <v>5576</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="M28">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="N28">
-        <v>15148</v>
+        <v>2040</v>
       </c>
       <c r="O28">
-        <v>49463</v>
+        <v>8517</v>
       </c>
       <c r="P28">
-        <v>34021</v>
+        <v>6039</v>
       </c>
       <c r="Q28">
-        <v>-276</v>
+        <v>-383</v>
       </c>
       <c r="R28">
-        <v>42944</v>
+        <v>39290</v>
       </c>
       <c r="S28">
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>50787</v>
+        <v>11143</v>
       </c>
       <c r="U28">
-        <v>4691</v>
+        <v>873</v>
       </c>
       <c r="V28">
-        <v>737</v>
+        <v>910</v>
       </c>
       <c r="W28">
-        <v>-625</v>
+        <v>-142</v>
       </c>
       <c r="X28">
-        <v>-1141</v>
+        <v>-581</v>
       </c>
       <c r="Y28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>356</v>
+        <v>-400</v>
       </c>
       <c r="AA28">
-        <v>1016</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43035</v>
+        <v>39381</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>2017</v>
+        <v>666</v>
       </c>
       <c r="D29">
-        <v>7050</v>
+        <v>3123</v>
       </c>
       <c r="E29">
-        <v>5752</v>
+        <v>2865</v>
       </c>
       <c r="F29">
-        <v>4951</v>
+        <v>2283</v>
       </c>
       <c r="G29">
-        <v>25162</v>
+        <v>10541</v>
       </c>
       <c r="H29">
-        <v>94458</v>
+        <v>20586</v>
       </c>
       <c r="I29">
-        <v>1718</v>
+        <v>315</v>
       </c>
       <c r="J29">
-        <v>25927</v>
+        <v>5494</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>10496</v>
+        <v>2651</v>
       </c>
       <c r="O29">
-        <v>42880</v>
+        <v>9111</v>
       </c>
       <c r="P29">
-        <v>29080</v>
+        <v>6371</v>
       </c>
       <c r="Q29">
-        <v>838</v>
+        <v>3810</v>
       </c>
       <c r="R29">
-        <v>43035</v>
+        <v>39381</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>51578</v>
+        <v>11475</v>
       </c>
       <c r="U29">
-        <v>5529</v>
+        <v>4683</v>
       </c>
       <c r="V29">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="W29">
-        <v>-622</v>
+        <v>-142</v>
       </c>
       <c r="X29">
-        <v>-6136</v>
+        <v>-21</v>
       </c>
       <c r="Y29">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>313</v>
+        <v>3080</v>
       </c>
       <c r="AA29">
-        <v>2017</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43126</v>
+        <v>39472</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1389</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>7369</v>
+        <v>3405</v>
       </c>
       <c r="E30">
-        <v>5775</v>
+        <v>2979</v>
       </c>
       <c r="F30">
-        <v>5188</v>
+        <v>2569</v>
       </c>
       <c r="G30">
-        <v>26607</v>
+        <v>6681</v>
       </c>
       <c r="H30">
-        <v>95800</v>
+        <v>21412</v>
       </c>
       <c r="I30">
-        <v>1809</v>
+        <v>395</v>
       </c>
       <c r="J30">
-        <v>25909</v>
+        <v>5579</v>
       </c>
       <c r="K30">
-        <v>504</v>
+        <v>1318</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>10933</v>
+        <v>3536</v>
       </c>
       <c r="O30">
-        <v>45460</v>
+        <v>10446</v>
       </c>
       <c r="P30">
-        <v>28833</v>
+        <v>6974</v>
       </c>
       <c r="Q30">
-        <v>829</v>
+        <v>-3954</v>
       </c>
       <c r="R30">
-        <v>43126</v>
+        <v>39472</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>50340</v>
+        <v>10966</v>
       </c>
       <c r="U30">
-        <v>6358</v>
+        <v>729</v>
       </c>
       <c r="V30">
-        <v>2002</v>
+        <v>1095</v>
       </c>
       <c r="W30">
-        <v>-623</v>
+        <v>-141</v>
       </c>
       <c r="X30">
-        <v>-849</v>
+        <v>-94</v>
       </c>
       <c r="Y30">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="Z30">
-        <v>-88</v>
+        <v>-448</v>
       </c>
       <c r="AA30">
-        <v>-1389</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43217</v>
+        <v>39563</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1367</v>
+        <v>813</v>
       </c>
       <c r="D31">
-        <v>8144</v>
+        <v>3860</v>
       </c>
       <c r="E31">
-        <v>5987</v>
+        <v>3287</v>
       </c>
       <c r="F31">
-        <v>5761</v>
+        <v>2920</v>
       </c>
       <c r="G31">
-        <v>24974</v>
+        <v>7322</v>
       </c>
       <c r="H31">
-        <v>91403</v>
+        <v>22198</v>
       </c>
       <c r="I31">
-        <v>1628</v>
+        <v>383</v>
       </c>
       <c r="J31">
-        <v>23698</v>
+        <v>5735</v>
       </c>
       <c r="K31">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,164 +3299,164 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>8363</v>
+        <v>3535</v>
       </c>
       <c r="O31">
-        <v>40674</v>
+        <v>10662</v>
       </c>
       <c r="P31">
-        <v>25777</v>
+        <v>6956</v>
       </c>
       <c r="Q31">
-        <v>-2689</v>
+        <v>331</v>
       </c>
       <c r="R31">
-        <v>43217</v>
+        <v>39563</v>
       </c>
       <c r="S31">
-        <v>98003</v>
+        <v>40351</v>
       </c>
       <c r="T31">
-        <v>50729</v>
+        <v>11536</v>
       </c>
       <c r="U31">
-        <v>3669</v>
+        <v>1060</v>
       </c>
       <c r="V31">
-        <v>1038</v>
+        <v>589</v>
       </c>
       <c r="W31">
-        <v>-624</v>
+        <v>-140</v>
       </c>
       <c r="X31">
-        <v>-3828</v>
+        <v>-139</v>
       </c>
       <c r="Y31">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Z31">
-        <v>446</v>
+        <v>-108</v>
       </c>
       <c r="AA31">
-        <v>1367</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43308</v>
+        <v>39654</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1075</v>
+        <v>723</v>
       </c>
       <c r="D32">
-        <v>7384</v>
+        <v>3706</v>
       </c>
       <c r="E32">
-        <v>5674</v>
+        <v>3239</v>
       </c>
       <c r="F32">
-        <v>5195</v>
+        <v>2851</v>
       </c>
       <c r="G32">
-        <v>22460</v>
+        <v>7398</v>
       </c>
       <c r="H32">
-        <v>89721</v>
+        <v>22733</v>
       </c>
       <c r="I32">
-        <v>1789</v>
+        <v>387</v>
       </c>
       <c r="J32">
-        <v>23675</v>
+        <v>5432</v>
       </c>
       <c r="K32">
-        <v>224</v>
+        <v>1530</v>
       </c>
       <c r="L32">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-12</v>
+        <v>-300</v>
       </c>
       <c r="N32">
-        <v>9112</v>
+        <v>3722</v>
       </c>
       <c r="O32">
-        <v>39392</v>
+        <v>10494</v>
       </c>
       <c r="P32">
-        <v>25244</v>
+        <v>7134</v>
       </c>
       <c r="Q32">
-        <v>711</v>
+        <v>110</v>
       </c>
       <c r="R32">
-        <v>43308</v>
+        <v>39654</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>50329</v>
+        <v>12239</v>
       </c>
       <c r="U32">
-        <v>4380</v>
+        <v>1170</v>
       </c>
       <c r="V32">
-        <v>1702</v>
+        <v>800</v>
       </c>
       <c r="W32">
-        <v>-677</v>
+        <v>-211</v>
       </c>
       <c r="X32">
-        <v>-1573</v>
+        <v>4</v>
       </c>
       <c r="Y32">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="Z32">
-        <v>1038</v>
+        <v>-545</v>
       </c>
       <c r="AA32">
-        <v>1075</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43399</v>
+        <v>39745</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1115</v>
+        <v>547</v>
       </c>
       <c r="D33">
-        <v>7481</v>
+        <v>3570</v>
       </c>
       <c r="E33">
-        <v>5743</v>
+        <v>2947</v>
       </c>
       <c r="F33">
-        <v>5300</v>
+        <v>2687</v>
       </c>
       <c r="G33">
-        <v>21653</v>
+        <v>6502</v>
       </c>
       <c r="H33">
-        <v>88150</v>
+        <v>22033</v>
       </c>
       <c r="I33">
-        <v>1742</v>
+        <v>364</v>
       </c>
       <c r="J33">
-        <v>23669</v>
+        <v>5456</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>8463</v>
+        <v>2914</v>
       </c>
       <c r="O33">
-        <v>38436</v>
+        <v>9409</v>
       </c>
       <c r="P33">
-        <v>25037</v>
+        <v>6541</v>
       </c>
       <c r="Q33">
-        <v>-469</v>
+        <v>-629</v>
       </c>
       <c r="R33">
-        <v>43399</v>
+        <v>39745</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>38465</v>
       </c>
       <c r="T33">
-        <v>49714</v>
+        <v>12624</v>
       </c>
       <c r="U33">
-        <v>3911</v>
+        <v>541</v>
       </c>
       <c r="V33">
-        <v>1163</v>
+        <v>820</v>
       </c>
       <c r="W33">
-        <v>-674</v>
+        <v>-210</v>
       </c>
       <c r="X33">
-        <v>-1730</v>
+        <v>-1095</v>
       </c>
       <c r="Y33">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Z33">
-        <v>342</v>
+        <v>-11</v>
       </c>
       <c r="AA33">
-        <v>1115</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43490</v>
+        <v>39836</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1269</v>
+        <v>697</v>
       </c>
       <c r="D34">
-        <v>7546</v>
+        <v>3494</v>
       </c>
       <c r="E34">
-        <v>5854</v>
+        <v>2954</v>
       </c>
       <c r="F34">
-        <v>5302</v>
+        <v>2646</v>
       </c>
       <c r="G34">
-        <v>20877</v>
+        <v>7206</v>
       </c>
       <c r="H34">
-        <v>88730</v>
+        <v>22764</v>
       </c>
       <c r="I34">
-        <v>1706</v>
+        <v>363</v>
       </c>
       <c r="J34">
-        <v>23661</v>
+        <v>5458</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>8853</v>
+        <v>3168</v>
       </c>
       <c r="O34">
-        <v>38789</v>
+        <v>9700</v>
       </c>
       <c r="P34">
-        <v>25041</v>
+        <v>6709</v>
       </c>
       <c r="Q34">
-        <v>-208</v>
+        <v>742</v>
       </c>
       <c r="R34">
-        <v>43490</v>
+        <v>39836</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>49941</v>
+        <v>13064</v>
       </c>
       <c r="U34">
-        <v>3703</v>
+        <v>1283</v>
       </c>
       <c r="V34">
-        <v>2055</v>
+        <v>1135</v>
       </c>
       <c r="W34">
-        <v>-671</v>
+        <v>-211</v>
       </c>
       <c r="X34">
-        <v>-1268</v>
+        <v>-126</v>
       </c>
       <c r="Y34">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Z34">
-        <v>792</v>
+        <v>492</v>
       </c>
       <c r="AA34">
-        <v>1269</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43581</v>
+        <v>39927</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1265</v>
+        <v>103</v>
       </c>
       <c r="D35">
-        <v>8146</v>
+        <v>3829</v>
       </c>
       <c r="E35">
-        <v>6222</v>
+        <v>3123</v>
       </c>
       <c r="F35">
-        <v>5696</v>
+        <v>2900</v>
       </c>
       <c r="G35">
-        <v>24084</v>
+        <v>7452</v>
       </c>
       <c r="H35">
-        <v>89694</v>
+        <v>23588</v>
       </c>
       <c r="I35">
-        <v>1953</v>
+        <v>382</v>
       </c>
       <c r="J35">
-        <v>24476</v>
+        <v>6200</v>
       </c>
       <c r="K35">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>6987</v>
+        <v>3147</v>
       </c>
       <c r="O35">
-        <v>39482</v>
+        <v>10406</v>
       </c>
       <c r="P35">
-        <v>25324</v>
+        <v>6775</v>
       </c>
       <c r="Q35">
-        <v>690</v>
+        <v>-12</v>
       </c>
       <c r="R35">
-        <v>43581</v>
+        <v>39927</v>
       </c>
       <c r="S35">
-        <v>101013</v>
+        <v>41158</v>
       </c>
       <c r="T35">
-        <v>50212</v>
+        <v>13182</v>
       </c>
       <c r="U35">
-        <v>4393</v>
+        <v>1271</v>
       </c>
       <c r="V35">
-        <v>2087</v>
+        <v>1123</v>
       </c>
       <c r="W35">
-        <v>-671</v>
+        <v>-211</v>
       </c>
       <c r="X35">
-        <v>-860</v>
+        <v>372</v>
       </c>
       <c r="Y35">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="Z35">
-        <v>-21</v>
+        <v>-51</v>
       </c>
       <c r="AA35">
-        <v>1265</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43672</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>864</v>
+        <v>445</v>
       </c>
       <c r="D36">
-        <v>7493</v>
+        <v>3933</v>
       </c>
       <c r="E36">
-        <v>5894</v>
+        <v>3113</v>
       </c>
       <c r="F36">
-        <v>5162</v>
+        <v>2974</v>
       </c>
       <c r="G36">
-        <v>22705</v>
+        <v>7284</v>
       </c>
       <c r="H36">
-        <v>91268</v>
+        <v>23574</v>
       </c>
       <c r="I36">
-        <v>1906</v>
+        <v>373</v>
       </c>
       <c r="J36">
-        <v>24772</v>
+        <v>6307</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-5035</v>
+        <v>-6</v>
       </c>
       <c r="N36">
-        <v>8518</v>
+        <v>3132</v>
       </c>
       <c r="O36">
-        <v>40771</v>
+        <v>10430</v>
       </c>
       <c r="P36">
-        <v>27240</v>
+        <v>6965</v>
       </c>
       <c r="Q36">
-        <v>687</v>
+        <v>-249</v>
       </c>
       <c r="R36">
-        <v>43672</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>50497</v>
+        <v>13144</v>
       </c>
       <c r="U36">
-        <v>5080</v>
+        <v>1022</v>
       </c>
       <c r="V36">
-        <v>1510</v>
+        <v>621</v>
       </c>
       <c r="W36">
-        <v>-724</v>
+        <v>-228</v>
       </c>
       <c r="X36">
-        <v>-274</v>
+        <v>-394</v>
       </c>
       <c r="Y36">
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-100</v>
+        <v>-296</v>
       </c>
       <c r="AA36">
-        <v>864</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43763</v>
+        <v>40116</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1364</v>
+        <v>869</v>
       </c>
       <c r="D37">
-        <v>7706</v>
+        <v>3838</v>
       </c>
       <c r="E37">
-        <v>6118</v>
+        <v>3232</v>
       </c>
       <c r="F37">
-        <v>5344</v>
+        <v>2916</v>
       </c>
       <c r="G37">
-        <v>22653</v>
+        <v>7312</v>
       </c>
       <c r="H37">
-        <v>91053</v>
+        <v>24284</v>
       </c>
       <c r="I37">
-        <v>1965</v>
+        <v>396</v>
       </c>
       <c r="J37">
-        <v>24725</v>
+        <v>6349</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>8170</v>
+        <v>3278</v>
       </c>
       <c r="O37">
-        <v>40334</v>
+        <v>10676</v>
       </c>
       <c r="P37">
-        <v>26637</v>
+        <v>7496</v>
       </c>
       <c r="Q37">
-        <v>-1118</v>
+        <v>-196</v>
       </c>
       <c r="R37">
-        <v>43763</v>
+        <v>40116</v>
       </c>
       <c r="S37">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>50719</v>
+        <v>13608</v>
       </c>
       <c r="U37">
-        <v>3962</v>
+        <v>826</v>
       </c>
       <c r="V37">
-        <v>1867</v>
+        <v>785</v>
       </c>
       <c r="W37">
-        <v>-723</v>
+        <v>-227</v>
       </c>
       <c r="X37">
-        <v>-1741</v>
+        <v>45</v>
       </c>
       <c r="Y37">
-        <v>861</v>
+        <v>19</v>
       </c>
       <c r="Z37">
-        <v>-866</v>
+        <v>-875</v>
       </c>
       <c r="AA37">
-        <v>1364</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43854</v>
+        <v>40207</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1915</v>
+        <v>831</v>
       </c>
       <c r="D38">
-        <v>7717</v>
+        <v>3851</v>
       </c>
       <c r="E38">
-        <v>6248</v>
+        <v>3131</v>
       </c>
       <c r="F38">
-        <v>5367</v>
+        <v>2939</v>
       </c>
       <c r="G38">
-        <v>24043</v>
+        <v>7979</v>
       </c>
       <c r="H38">
-        <v>92822</v>
+        <v>25168</v>
       </c>
       <c r="I38">
-        <v>1945</v>
+        <v>399</v>
       </c>
       <c r="J38">
-        <v>24685</v>
+        <v>5977</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>8735</v>
+        <v>3794</v>
       </c>
       <c r="O38">
-        <v>40869</v>
+        <v>10848</v>
       </c>
       <c r="P38">
-        <v>26596</v>
+        <v>7426</v>
       </c>
       <c r="Q38">
-        <v>-253</v>
+        <v>637</v>
       </c>
       <c r="R38">
-        <v>43854</v>
+        <v>40207</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>51953</v>
+        <v>14320</v>
       </c>
       <c r="U38">
-        <v>3709</v>
+        <v>1463</v>
       </c>
       <c r="V38">
-        <v>2407</v>
+        <v>1488</v>
       </c>
       <c r="W38">
-        <v>-723</v>
+        <v>-226</v>
       </c>
       <c r="X38">
-        <v>-873</v>
+        <v>-332</v>
       </c>
       <c r="Y38">
-        <v>898</v>
+        <v>19</v>
       </c>
       <c r="Z38">
-        <v>-1492</v>
+        <v>-342</v>
       </c>
       <c r="AA38">
-        <v>1915</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43945</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>816</v>
+        <v>954</v>
       </c>
       <c r="D39">
-        <v>5997</v>
+        <v>4196</v>
       </c>
       <c r="E39">
-        <v>4645</v>
+        <v>3335</v>
       </c>
       <c r="F39">
-        <v>3771</v>
+        <v>3184</v>
       </c>
       <c r="G39">
-        <v>25517</v>
+        <v>9839</v>
       </c>
       <c r="H39">
-        <v>90689</v>
+        <v>28090</v>
       </c>
       <c r="I39">
-        <v>1996</v>
+        <v>420</v>
       </c>
       <c r="J39">
-        <v>21976</v>
+        <v>6926</v>
       </c>
       <c r="K39">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,164 +3963,164 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>8882</v>
+        <v>5121</v>
       </c>
       <c r="O39">
-        <v>39647</v>
+        <v>13461</v>
       </c>
       <c r="P39">
-        <v>25742</v>
+        <v>9519</v>
       </c>
       <c r="Q39">
-        <v>431</v>
+        <v>-63</v>
       </c>
       <c r="R39">
-        <v>43945</v>
+        <v>40298</v>
       </c>
       <c r="S39">
-        <v>104950</v>
+        <v>43000</v>
       </c>
       <c r="T39">
-        <v>51042</v>
+        <v>14629</v>
       </c>
       <c r="U39">
-        <v>4140</v>
+        <v>1400</v>
       </c>
       <c r="V39">
-        <v>1450</v>
+        <v>1237</v>
       </c>
       <c r="W39">
-        <v>-724</v>
+        <v>-226</v>
       </c>
       <c r="X39">
-        <v>-1310</v>
+        <v>1445</v>
       </c>
       <c r="Y39">
-        <v>819</v>
+        <v>18</v>
       </c>
       <c r="Z39">
-        <v>993</v>
+        <v>-2174</v>
       </c>
       <c r="AA39">
-        <v>816</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>487</v>
+        <v>830</v>
       </c>
       <c r="D40">
-        <v>6507</v>
+        <v>3773</v>
       </c>
       <c r="E40">
-        <v>4876</v>
+        <v>3230</v>
       </c>
       <c r="F40">
-        <v>4029</v>
+        <v>2880</v>
       </c>
       <c r="G40">
-        <v>24509</v>
+        <v>9997</v>
       </c>
       <c r="H40">
-        <v>93906</v>
+        <v>28660</v>
       </c>
       <c r="I40">
-        <v>1720</v>
+        <v>410</v>
       </c>
       <c r="J40">
-        <v>22822</v>
+        <v>7080</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3428</v>
       </c>
       <c r="L40">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="N40">
-        <v>13086</v>
+        <v>5611</v>
       </c>
       <c r="O40">
-        <v>43463</v>
+        <v>14059</v>
       </c>
       <c r="P40">
-        <v>28690</v>
+        <v>10508</v>
       </c>
       <c r="Q40">
-        <v>2359</v>
+        <v>-36</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="S40">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>50443</v>
+        <v>14601</v>
       </c>
       <c r="U40">
-        <v>6499</v>
+        <v>1364</v>
       </c>
       <c r="V40">
-        <v>278</v>
+        <v>805</v>
       </c>
       <c r="W40">
-        <v>-778</v>
+        <v>-245</v>
       </c>
       <c r="X40">
-        <v>1959</v>
+        <v>-46</v>
       </c>
       <c r="Y40">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>358</v>
+        <v>-564</v>
       </c>
       <c r="AA40">
-        <v>487</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>7647</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>5348</v>
+        <v>3453</v>
       </c>
       <c r="F41">
-        <v>4974</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>26036</v>
+        <v>9894</v>
       </c>
       <c r="H41">
-        <v>95886</v>
+        <v>29311</v>
       </c>
       <c r="I41">
-        <v>1902</v>
+        <v>438</v>
       </c>
       <c r="J41">
-        <v>25911</v>
+        <v>7130</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3417</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>12071</v>
+        <v>5895</v>
       </c>
       <c r="O41">
-        <v>45570</v>
+        <v>14486</v>
       </c>
       <c r="P41">
-        <v>30008</v>
+        <v>10565</v>
       </c>
       <c r="Q41">
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="S41">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>50316</v>
+        <v>14825</v>
       </c>
       <c r="U41">
-        <v>6420</v>
+        <v>1256</v>
       </c>
       <c r="V41">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="Z41">
-        <v>-1381</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44225</v>
+        <v>40571</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>924</v>
+      </c>
+      <c r="D42">
+        <v>3857</v>
+      </c>
+      <c r="E42">
+        <v>3472</v>
+      </c>
+      <c r="F42">
+        <v>2923</v>
+      </c>
+      <c r="G42">
+        <v>9986</v>
+      </c>
+      <c r="H42">
+        <v>30597</v>
+      </c>
+      <c r="I42">
+        <v>486</v>
+      </c>
+      <c r="J42">
+        <v>7054</v>
+      </c>
+      <c r="K42">
+        <v>3674</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>6414</v>
+      </c>
+      <c r="O42">
+        <v>15239</v>
+      </c>
+      <c r="P42">
+        <v>10758</v>
+      </c>
+      <c r="Q42">
+        <v>27</v>
+      </c>
+      <c r="R42">
+        <v>40571</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>15358</v>
+      </c>
+      <c r="U42">
+        <v>1283</v>
+      </c>
+      <c r="V42">
+        <v>1245</v>
+      </c>
+      <c r="W42">
+        <v>-240</v>
+      </c>
+      <c r="X42">
+        <v>-394</v>
+      </c>
+      <c r="Y42">
+        <v>30</v>
+      </c>
+      <c r="Z42">
+        <v>204</v>
+      </c>
+      <c r="AA42">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40662</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>776</v>
+      </c>
+      <c r="D43">
+        <v>4167</v>
+      </c>
+      <c r="E43">
+        <v>3761</v>
+      </c>
+      <c r="F43">
+        <v>3171</v>
+      </c>
+      <c r="G43">
+        <v>9150</v>
+      </c>
+      <c r="H43">
+        <v>30675</v>
+      </c>
+      <c r="I43">
+        <v>495</v>
+      </c>
+      <c r="J43">
+        <v>8080</v>
+      </c>
+      <c r="K43">
+        <v>1500</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4726</v>
+      </c>
+      <c r="O43">
+        <v>14707</v>
+      </c>
+      <c r="P43">
+        <v>9835</v>
+      </c>
+      <c r="Q43">
+        <v>99</v>
+      </c>
+      <c r="R43">
+        <v>40662</v>
+      </c>
+      <c r="S43">
+        <v>45499</v>
+      </c>
+      <c r="T43">
+        <v>15968</v>
+      </c>
+      <c r="U43">
+        <v>1382</v>
+      </c>
+      <c r="V43">
+        <v>793</v>
+      </c>
+      <c r="W43">
+        <v>-241</v>
+      </c>
+      <c r="X43">
+        <v>-1185</v>
+      </c>
+      <c r="Y43">
+        <v>32</v>
+      </c>
+      <c r="Z43">
+        <v>622</v>
+      </c>
+      <c r="AA43">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>821</v>
+      </c>
+      <c r="D44">
+        <v>3946</v>
+      </c>
+      <c r="E44">
+        <v>3745</v>
+      </c>
+      <c r="F44">
+        <v>2995</v>
+      </c>
+      <c r="G44">
+        <v>9285</v>
+      </c>
+      <c r="H44">
+        <v>31091</v>
+      </c>
+      <c r="I44">
+        <v>537</v>
+      </c>
+      <c r="J44">
+        <v>8195</v>
+      </c>
+      <c r="K44">
+        <v>1857</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4805</v>
+      </c>
+      <c r="O44">
+        <v>14751</v>
+      </c>
+      <c r="P44">
+        <v>10052</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <v>40753</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>16340</v>
+      </c>
+      <c r="U44">
+        <v>1393</v>
+      </c>
+      <c r="V44">
+        <v>1115</v>
+      </c>
+      <c r="W44">
+        <v>-257</v>
+      </c>
+      <c r="X44">
+        <v>-497</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-421</v>
+      </c>
+      <c r="AA44">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>871</v>
+      </c>
+      <c r="D45">
+        <v>4023</v>
+      </c>
+      <c r="E45">
+        <v>3837</v>
+      </c>
+      <c r="F45">
+        <v>3063</v>
+      </c>
+      <c r="G45">
+        <v>9014</v>
+      </c>
+      <c r="H45">
+        <v>31753</v>
+      </c>
+      <c r="I45">
+        <v>543</v>
+      </c>
+      <c r="J45">
+        <v>8232</v>
+      </c>
+      <c r="K45">
+        <v>2050</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4734</v>
+      </c>
+      <c r="O45">
+        <v>15014</v>
+      </c>
+      <c r="P45">
+        <v>10282</v>
+      </c>
+      <c r="Q45">
+        <v>-345</v>
+      </c>
+      <c r="R45">
+        <v>40844</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>16739</v>
+      </c>
+      <c r="U45">
+        <v>1048</v>
+      </c>
+      <c r="V45">
+        <v>1172</v>
+      </c>
+      <c r="W45">
+        <v>-257</v>
+      </c>
+      <c r="X45">
+        <v>-347</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-437</v>
+      </c>
+      <c r="AA45">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40935</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>934</v>
+      </c>
+      <c r="D46">
+        <v>3918</v>
+      </c>
+      <c r="E46">
+        <v>3665</v>
+      </c>
+      <c r="F46">
+        <v>2987</v>
+      </c>
+      <c r="G46">
+        <v>9308</v>
+      </c>
+      <c r="H46">
+        <v>31911</v>
+      </c>
+      <c r="I46">
+        <v>491</v>
+      </c>
+      <c r="J46">
+        <v>8291</v>
+      </c>
+      <c r="K46">
+        <v>1972</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4562</v>
+      </c>
+      <c r="O46">
+        <v>14742</v>
+      </c>
+      <c r="P46">
+        <v>10263</v>
+      </c>
+      <c r="Q46">
+        <v>142</v>
+      </c>
+      <c r="R46">
+        <v>40935</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>17169</v>
+      </c>
+      <c r="U46">
+        <v>1190</v>
+      </c>
+      <c r="V46">
+        <v>1139</v>
+      </c>
+      <c r="W46">
+        <v>-255</v>
+      </c>
+      <c r="X46">
+        <v>-502</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-361</v>
+      </c>
+      <c r="AA46">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41026</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3808</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>16336</v>
+      </c>
+      <c r="H47">
+        <v>32818</v>
+      </c>
+      <c r="I47">
+        <v>565</v>
+      </c>
+      <c r="J47">
+        <v>7239</v>
+      </c>
+      <c r="K47">
+        <v>950</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>5927</v>
+      </c>
+      <c r="O47">
+        <v>15705</v>
+      </c>
+      <c r="P47">
+        <v>10678</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>41026</v>
+      </c>
+      <c r="S47">
+        <v>44944</v>
+      </c>
+      <c r="T47">
+        <v>17113</v>
+      </c>
+      <c r="U47">
+        <v>1172</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>165</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>864</v>
+      </c>
+      <c r="D48">
+        <v>4008</v>
+      </c>
+      <c r="E48">
+        <v>3448</v>
+      </c>
+      <c r="F48">
+        <v>3035</v>
+      </c>
+      <c r="G48">
+        <v>9183</v>
+      </c>
+      <c r="H48">
+        <v>33252</v>
+      </c>
+      <c r="I48">
+        <v>521</v>
+      </c>
+      <c r="J48">
+        <v>7480</v>
+      </c>
+      <c r="K48">
+        <v>3391</v>
+      </c>
+      <c r="L48">
+        <v>-484</v>
+      </c>
+      <c r="M48">
+        <v>-6</v>
+      </c>
+      <c r="N48">
+        <v>5811</v>
+      </c>
+      <c r="O48">
+        <v>15997</v>
+      </c>
+      <c r="P48">
+        <v>10871</v>
+      </c>
+      <c r="Q48">
+        <v>-363</v>
+      </c>
+      <c r="R48">
+        <v>41117</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>17255</v>
+      </c>
+      <c r="U48">
+        <v>861</v>
+      </c>
+      <c r="V48">
+        <v>1332</v>
+      </c>
+      <c r="W48">
+        <v>-267</v>
+      </c>
+      <c r="X48">
+        <v>-643</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-845</v>
+      </c>
+      <c r="AA48">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>646</v>
+      </c>
+      <c r="D49">
+        <v>4095</v>
+      </c>
+      <c r="E49">
+        <v>3612</v>
+      </c>
+      <c r="F49">
+        <v>3075</v>
+      </c>
+      <c r="G49">
+        <v>9435</v>
+      </c>
+      <c r="H49">
+        <v>33960</v>
+      </c>
+      <c r="I49">
+        <v>551</v>
+      </c>
+      <c r="J49">
+        <v>7441</v>
+      </c>
+      <c r="K49">
+        <v>4097</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>6621</v>
+      </c>
+      <c r="O49">
+        <v>16785</v>
+      </c>
+      <c r="P49">
+        <v>11538</v>
+      </c>
+      <c r="Q49">
+        <v>875</v>
+      </c>
+      <c r="R49">
+        <v>41208</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>17175</v>
+      </c>
+      <c r="U49">
+        <v>1759</v>
+      </c>
+      <c r="V49">
+        <v>894</v>
+      </c>
+      <c r="W49">
+        <v>-266</v>
+      </c>
+      <c r="X49">
+        <v>-119</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>158</v>
+      </c>
+      <c r="AA49">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41299</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>4027</v>
+      </c>
+      <c r="E50">
+        <v>3532</v>
+      </c>
+      <c r="F50">
+        <v>3028</v>
+      </c>
+      <c r="G50">
+        <v>9161</v>
+      </c>
+      <c r="H50">
+        <v>34949</v>
+      </c>
+      <c r="I50">
+        <v>569</v>
+      </c>
+      <c r="J50">
+        <v>7233</v>
+      </c>
+      <c r="K50">
+        <v>4104</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>6958</v>
+      </c>
+      <c r="O50">
+        <v>17113</v>
+      </c>
+      <c r="P50">
+        <v>11492</v>
+      </c>
+      <c r="Q50">
+        <v>-492</v>
+      </c>
+      <c r="R50">
+        <v>41299</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>17836</v>
+      </c>
+      <c r="U50">
+        <v>1298</v>
+      </c>
+      <c r="V50">
+        <v>1446</v>
+      </c>
+      <c r="W50">
+        <v>-264</v>
+      </c>
+      <c r="X50">
+        <v>-387</v>
+      </c>
+      <c r="Y50">
+        <v>155</v>
+      </c>
+      <c r="Z50">
+        <v>-667</v>
+      </c>
+      <c r="AA50">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41390</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>969</v>
+      </c>
+      <c r="D51">
+        <v>4439</v>
+      </c>
+      <c r="E51">
+        <v>3727</v>
+      </c>
+      <c r="F51">
+        <v>3336</v>
+      </c>
+      <c r="G51">
+        <v>17852</v>
+      </c>
+      <c r="H51">
+        <v>34900</v>
+      </c>
+      <c r="I51">
+        <v>681</v>
+      </c>
+      <c r="J51">
+        <v>9607</v>
+      </c>
+      <c r="K51">
+        <v>125</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3950</v>
+      </c>
+      <c r="O51">
+        <v>16229</v>
+      </c>
+      <c r="P51">
+        <v>10669</v>
+      </c>
+      <c r="Q51">
+        <v>-273</v>
+      </c>
+      <c r="R51">
+        <v>41390</v>
+      </c>
+      <c r="S51">
+        <v>46659</v>
+      </c>
+      <c r="T51">
+        <v>18671</v>
+      </c>
+      <c r="U51">
+        <v>919</v>
+      </c>
+      <c r="V51">
         <v>1270</v>
       </c>
-      <c r="D42">
+      <c r="W51">
+        <v>-258</v>
+      </c>
+      <c r="X51">
+        <v>-952</v>
+      </c>
+      <c r="Y51">
+        <v>152</v>
+      </c>
+      <c r="Z51">
+        <v>-456</v>
+      </c>
+      <c r="AA51">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41481</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>953</v>
+      </c>
+      <c r="D52">
+        <v>4083</v>
+      </c>
+      <c r="E52">
+        <v>3627</v>
+      </c>
+      <c r="F52">
+        <v>3061</v>
+      </c>
+      <c r="G52">
+        <v>18090</v>
+      </c>
+      <c r="H52">
+        <v>34972</v>
+      </c>
+      <c r="I52">
+        <v>627</v>
+      </c>
+      <c r="J52">
+        <v>9652</v>
+      </c>
+      <c r="K52">
+        <v>1543</v>
+      </c>
+      <c r="L52">
+        <v>-125</v>
+      </c>
+      <c r="M52">
+        <v>-4</v>
+      </c>
+      <c r="N52">
+        <v>4285</v>
+      </c>
+      <c r="O52">
+        <v>16453</v>
+      </c>
+      <c r="P52">
+        <v>11195</v>
+      </c>
+      <c r="Q52">
+        <v>-91</v>
+      </c>
+      <c r="R52">
+        <v>41481</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>18519</v>
+      </c>
+      <c r="U52">
+        <v>828</v>
+      </c>
+      <c r="V52">
+        <v>983</v>
+      </c>
+      <c r="W52">
+        <v>-281</v>
+      </c>
+      <c r="X52">
+        <v>-422</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-562</v>
+      </c>
+      <c r="AA52">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41572</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>902</v>
+      </c>
+      <c r="D53">
+        <v>4194</v>
+      </c>
+      <c r="E53">
+        <v>3792</v>
+      </c>
+      <c r="F53">
+        <v>3104</v>
+      </c>
+      <c r="G53">
+        <v>19483</v>
+      </c>
+      <c r="H53">
+        <v>36468</v>
+      </c>
+      <c r="I53">
+        <v>620</v>
+      </c>
+      <c r="J53">
+        <v>9641</v>
+      </c>
+      <c r="K53">
+        <v>2647</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>5496</v>
+      </c>
+      <c r="O53">
+        <v>17724</v>
+      </c>
+      <c r="P53">
+        <v>12288</v>
+      </c>
+      <c r="Q53">
+        <v>238</v>
+      </c>
+      <c r="R53">
+        <v>41572</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>18744</v>
+      </c>
+      <c r="U53">
+        <v>1066</v>
+      </c>
+      <c r="V53">
+        <v>1036</v>
+      </c>
+      <c r="W53">
+        <v>-279</v>
+      </c>
+      <c r="X53">
+        <v>363</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-866</v>
+      </c>
+      <c r="AA53">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>762</v>
+      </c>
+      <c r="D54">
+        <v>4163</v>
+      </c>
+      <c r="E54">
+        <v>3619</v>
+      </c>
+      <c r="F54">
+        <v>3113</v>
+      </c>
+      <c r="G54">
+        <v>20386</v>
+      </c>
+      <c r="H54">
+        <v>37231</v>
+      </c>
+      <c r="I54">
+        <v>567</v>
+      </c>
+      <c r="J54">
+        <v>9615</v>
+      </c>
+      <c r="K54">
+        <v>2618</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5632</v>
+      </c>
+      <c r="O54">
+        <v>17877</v>
+      </c>
+      <c r="P54">
+        <v>12233</v>
+      </c>
+      <c r="Q54">
+        <v>238</v>
+      </c>
+      <c r="R54">
+        <v>41663</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>19354</v>
+      </c>
+      <c r="U54">
+        <v>1304</v>
+      </c>
+      <c r="V54">
+        <v>1612</v>
+      </c>
+      <c r="W54">
+        <v>-279</v>
+      </c>
+      <c r="X54">
+        <v>-142</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-958</v>
+      </c>
+      <c r="AA54">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>448</v>
+      </c>
+      <c r="D55">
+        <v>4453</v>
+      </c>
+      <c r="E55">
+        <v>3811</v>
+      </c>
+      <c r="F55">
+        <v>3404</v>
+      </c>
+      <c r="G55">
+        <v>21210</v>
+      </c>
+      <c r="H55">
+        <v>37943</v>
+      </c>
+      <c r="I55">
+        <v>742</v>
+      </c>
+      <c r="J55">
+        <v>10187</v>
+      </c>
+      <c r="K55">
+        <v>337</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>5559</v>
+      </c>
+      <c r="O55">
+        <v>18500</v>
+      </c>
+      <c r="P55">
+        <v>11939</v>
+      </c>
+      <c r="Q55">
+        <v>99</v>
+      </c>
+      <c r="R55">
+        <v>41754</v>
+      </c>
+      <c r="S55">
+        <v>49247</v>
+      </c>
+      <c r="T55">
+        <v>19443</v>
+      </c>
+      <c r="U55">
+        <v>1403</v>
+      </c>
+      <c r="V55">
+        <v>1328</v>
+      </c>
+      <c r="W55">
+        <v>-277</v>
+      </c>
+      <c r="X55">
+        <v>-717</v>
+      </c>
+      <c r="Y55">
+        <v>139</v>
+      </c>
+      <c r="Z55">
+        <v>-398</v>
+      </c>
+      <c r="AA55">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41845</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>871</v>
+      </c>
+      <c r="D56">
+        <v>4273</v>
+      </c>
+      <c r="E56">
+        <v>3690</v>
+      </c>
+      <c r="F56">
+        <v>3168</v>
+      </c>
+      <c r="G56">
+        <v>20770</v>
+      </c>
+      <c r="H56">
+        <v>37554</v>
+      </c>
+      <c r="I56">
+        <v>685</v>
+      </c>
+      <c r="J56">
+        <v>10187</v>
+      </c>
+      <c r="K56">
+        <v>2477</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-3</v>
+      </c>
+      <c r="N56">
+        <v>5433</v>
+      </c>
+      <c r="O56">
+        <v>18306</v>
+      </c>
+      <c r="P56">
+        <v>12800</v>
+      </c>
+      <c r="Q56">
+        <v>-67</v>
+      </c>
+      <c r="R56">
+        <v>41845</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>19248</v>
+      </c>
+      <c r="U56">
+        <v>1336</v>
+      </c>
+      <c r="V56">
+        <v>310</v>
+      </c>
+      <c r="W56">
+        <v>-304</v>
+      </c>
+      <c r="X56">
+        <v>-355</v>
+      </c>
+      <c r="Y56">
+        <v>136</v>
+      </c>
+      <c r="Z56">
+        <v>253</v>
+      </c>
+      <c r="AA56">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41936</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>828</v>
+      </c>
+      <c r="D57">
+        <v>4366</v>
+      </c>
+      <c r="E57">
+        <v>3750</v>
+      </c>
+      <c r="F57">
+        <v>3224</v>
+      </c>
+      <c r="G57">
+        <v>21597</v>
+      </c>
+      <c r="H57">
+        <v>38780</v>
+      </c>
+      <c r="I57">
+        <v>723</v>
+      </c>
+      <c r="J57">
+        <v>9606</v>
+      </c>
+      <c r="K57">
+        <v>3970</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>6952</v>
+      </c>
+      <c r="O57">
+        <v>19342</v>
+      </c>
+      <c r="P57">
+        <v>13708</v>
+      </c>
+      <c r="Q57">
+        <v>-49</v>
+      </c>
+      <c r="R57">
+        <v>41936</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>19438</v>
+      </c>
+      <c r="U57">
+        <v>1287</v>
+      </c>
+      <c r="V57">
+        <v>913</v>
+      </c>
+      <c r="W57">
+        <v>-298</v>
+      </c>
+      <c r="X57">
+        <v>228</v>
+      </c>
+      <c r="Y57">
+        <v>132</v>
+      </c>
+      <c r="Z57">
+        <v>-612</v>
+      </c>
+      <c r="AA57">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42027</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>977</v>
+      </c>
+      <c r="D58">
+        <v>4318</v>
+      </c>
+      <c r="E58">
+        <v>3568</v>
+      </c>
+      <c r="F58">
+        <v>3190</v>
+      </c>
+      <c r="G58">
+        <v>38161</v>
+      </c>
+      <c r="H58">
+        <v>55233</v>
+      </c>
+      <c r="I58">
+        <v>635</v>
+      </c>
+      <c r="J58">
+        <v>26584</v>
+      </c>
+      <c r="K58">
+        <v>2185</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5613</v>
+      </c>
+      <c r="O58">
+        <v>35060</v>
+      </c>
+      <c r="P58">
+        <v>28899</v>
+      </c>
+      <c r="Q58">
+        <v>15944</v>
+      </c>
+      <c r="R58">
+        <v>42027</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>20173</v>
+      </c>
+      <c r="U58">
+        <v>17231</v>
+      </c>
+      <c r="V58">
+        <v>1767</v>
+      </c>
+      <c r="W58">
+        <v>-300</v>
+      </c>
+      <c r="X58">
+        <v>14925</v>
+      </c>
+      <c r="Y58">
+        <v>130</v>
+      </c>
+      <c r="Z58">
+        <v>-617</v>
+      </c>
+      <c r="AA58">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>7169</v>
+      </c>
+      <c r="E59">
+        <v>5112</v>
+      </c>
+      <c r="F59">
+        <v>4998</v>
+      </c>
+      <c r="G59">
+        <v>30844</v>
+      </c>
+      <c r="H59">
+        <v>106685</v>
+      </c>
+      <c r="I59">
+        <v>1610</v>
+      </c>
+      <c r="J59">
+        <v>33694</v>
+      </c>
+      <c r="K59">
+        <v>1303</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>9173</v>
+      </c>
+      <c r="O59">
+        <v>53455</v>
+      </c>
+      <c r="P59">
+        <v>36257</v>
+      </c>
+      <c r="Q59">
+        <v>-12388</v>
+      </c>
+      <c r="R59">
+        <v>42118</v>
+      </c>
+      <c r="S59">
+        <v>92500</v>
+      </c>
+      <c r="T59">
+        <v>53230</v>
+      </c>
+      <c r="U59">
+        <v>4843</v>
+      </c>
+      <c r="V59">
+        <v>1912</v>
+      </c>
+      <c r="W59">
+        <v>-435</v>
+      </c>
+      <c r="X59">
+        <v>1151</v>
+      </c>
+      <c r="Y59">
+        <v>129</v>
+      </c>
+      <c r="Z59">
+        <v>-716</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>820</v>
+      </c>
+      <c r="D60">
+        <v>7274</v>
+      </c>
+      <c r="E60">
+        <v>4811</v>
+      </c>
+      <c r="F60">
+        <v>5044</v>
+      </c>
+      <c r="G60">
+        <v>29147</v>
+      </c>
+      <c r="H60">
+        <v>104626</v>
+      </c>
+      <c r="I60">
+        <v>1321</v>
+      </c>
+      <c r="J60">
+        <v>33625</v>
+      </c>
+      <c r="K60">
+        <v>1850</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-1004</v>
+      </c>
+      <c r="N60">
+        <v>7660</v>
+      </c>
+      <c r="O60">
+        <v>51817</v>
+      </c>
+      <c r="P60">
+        <v>35600</v>
+      </c>
+      <c r="Q60">
+        <v>-1864</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>52809</v>
+      </c>
+      <c r="U60">
+        <v>2979</v>
+      </c>
+      <c r="V60">
+        <v>816</v>
+      </c>
+      <c r="W60">
+        <v>-538</v>
+      </c>
+      <c r="X60">
+        <v>-1744</v>
+      </c>
+      <c r="Y60">
+        <v>125</v>
+      </c>
+      <c r="Z60">
+        <v>-585</v>
+      </c>
+      <c r="AA60">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>520</v>
+      </c>
+      <c r="D61">
+        <v>7058</v>
+      </c>
+      <c r="E61">
+        <v>5044</v>
+      </c>
+      <c r="F61">
+        <v>4876</v>
+      </c>
+      <c r="G61">
+        <v>28723</v>
+      </c>
+      <c r="H61">
+        <v>104945</v>
+      </c>
+      <c r="I61">
+        <v>1447</v>
+      </c>
+      <c r="J61">
+        <v>33645</v>
+      </c>
+      <c r="K61">
+        <v>2158</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8126</v>
+      </c>
+      <c r="O61">
+        <v>52676</v>
+      </c>
+      <c r="P61">
+        <v>35924</v>
+      </c>
+      <c r="Q61">
+        <v>-601</v>
+      </c>
+      <c r="R61">
+        <v>42307</v>
+      </c>
+      <c r="S61">
+        <v>85000</v>
+      </c>
+      <c r="T61">
+        <v>52269</v>
+      </c>
+      <c r="U61">
+        <v>2378</v>
+      </c>
+      <c r="V61">
+        <v>1279</v>
+      </c>
+      <c r="W61">
+        <v>-537</v>
+      </c>
+      <c r="X61">
+        <v>-781</v>
+      </c>
+      <c r="Y61">
+        <v>121</v>
+      </c>
+      <c r="Z61">
+        <v>-33</v>
+      </c>
+      <c r="AA61">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1095</v>
+      </c>
+      <c r="D62">
+        <v>6934</v>
+      </c>
+      <c r="E62">
+        <v>4863</v>
+      </c>
+      <c r="F62">
+        <v>4793</v>
+      </c>
+      <c r="G62">
+        <v>27569</v>
+      </c>
+      <c r="H62">
+        <v>102706</v>
+      </c>
+      <c r="I62">
+        <v>1437</v>
+      </c>
+      <c r="J62">
+        <v>33610</v>
+      </c>
+      <c r="K62">
+        <v>2153</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>8141</v>
+      </c>
+      <c r="O62">
+        <v>51890</v>
+      </c>
+      <c r="P62">
+        <v>35880</v>
+      </c>
+      <c r="Q62">
+        <v>343</v>
+      </c>
+      <c r="R62">
+        <v>42398</v>
+      </c>
+      <c r="S62">
+        <v>85000</v>
+      </c>
+      <c r="T62">
+        <v>50816</v>
+      </c>
+      <c r="U62">
+        <v>2721</v>
+      </c>
+      <c r="V62">
+        <v>1797</v>
+      </c>
+      <c r="W62">
+        <v>-533</v>
+      </c>
+      <c r="X62">
+        <v>-1152</v>
+      </c>
+      <c r="Y62">
+        <v>117</v>
+      </c>
+      <c r="Z62">
+        <v>126</v>
+      </c>
+      <c r="AA62">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42489</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1103</v>
+      </c>
+      <c r="D63">
+        <v>7567</v>
+      </c>
+      <c r="E63">
+        <v>5562</v>
+      </c>
+      <c r="F63">
+        <v>5204</v>
+      </c>
+      <c r="G63">
+        <v>23600</v>
+      </c>
+      <c r="H63">
+        <v>99644</v>
+      </c>
+      <c r="I63">
+        <v>1709</v>
+      </c>
+      <c r="J63">
+        <v>30135</v>
+      </c>
+      <c r="K63">
+        <v>387</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>7165</v>
+      </c>
+      <c r="O63">
+        <v>47581</v>
+      </c>
+      <c r="P63">
+        <v>31154</v>
+      </c>
+      <c r="Q63">
+        <v>155</v>
+      </c>
+      <c r="R63">
+        <v>42489</v>
+      </c>
+      <c r="S63">
+        <v>98017</v>
+      </c>
+      <c r="T63">
+        <v>52063</v>
+      </c>
+      <c r="U63">
+        <v>2876</v>
+      </c>
+      <c r="V63">
+        <v>1326</v>
+      </c>
+      <c r="W63">
+        <v>-531</v>
+      </c>
+      <c r="X63">
+        <v>-5866</v>
+      </c>
+      <c r="Y63">
+        <v>26</v>
+      </c>
+      <c r="Z63">
+        <v>5010</v>
+      </c>
+      <c r="AA63">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>929</v>
+      </c>
+      <c r="D64">
+        <v>7166</v>
+      </c>
+      <c r="E64">
+        <v>5357</v>
+      </c>
+      <c r="F64">
+        <v>4915</v>
+      </c>
+      <c r="G64">
+        <v>23498</v>
+      </c>
+      <c r="H64">
+        <v>98601</v>
+      </c>
+      <c r="I64">
+        <v>1615</v>
+      </c>
+      <c r="J64">
+        <v>30180</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-17</v>
+      </c>
+      <c r="N64">
+        <v>7896</v>
+      </c>
+      <c r="O64">
+        <v>47709</v>
+      </c>
+      <c r="P64">
+        <v>32152</v>
+      </c>
+      <c r="Q64">
+        <v>184</v>
+      </c>
+      <c r="R64">
+        <v>42580</v>
+      </c>
+      <c r="S64">
+        <v>88000</v>
+      </c>
+      <c r="T64">
+        <v>50892</v>
+      </c>
+      <c r="U64">
+        <v>3060</v>
+      </c>
+      <c r="V64">
+        <v>1550</v>
+      </c>
+      <c r="W64">
+        <v>-599</v>
+      </c>
+      <c r="X64">
+        <v>-1160</v>
+      </c>
+      <c r="Y64">
+        <v>25</v>
+      </c>
+      <c r="Z64">
+        <v>60</v>
+      </c>
+      <c r="AA64">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42671</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1115</v>
+      </c>
+      <c r="D65">
+        <v>7345</v>
+      </c>
+      <c r="E65">
+        <v>5661</v>
+      </c>
+      <c r="F65">
+        <v>5057</v>
+      </c>
+      <c r="G65">
+        <v>22526</v>
+      </c>
+      <c r="H65">
+        <v>98406</v>
+      </c>
+      <c r="I65">
+        <v>1659</v>
+      </c>
+      <c r="J65">
+        <v>29047</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>9601</v>
+      </c>
+      <c r="O65">
+        <v>48113</v>
+      </c>
+      <c r="P65">
+        <v>32441</v>
+      </c>
+      <c r="Q65">
+        <v>-106</v>
+      </c>
+      <c r="R65">
+        <v>42671</v>
+      </c>
+      <c r="S65">
+        <v>88000</v>
+      </c>
+      <c r="T65">
+        <v>50293</v>
+      </c>
+      <c r="U65">
+        <v>2954</v>
+      </c>
+      <c r="V65">
+        <v>1472</v>
+      </c>
+      <c r="W65">
+        <v>-593</v>
+      </c>
+      <c r="X65">
+        <v>-1491</v>
+      </c>
+      <c r="Y65">
+        <v>27</v>
+      </c>
+      <c r="Z65">
+        <v>1455</v>
+      </c>
+      <c r="AA65">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42762</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>821</v>
+      </c>
+      <c r="D66">
+        <v>7283</v>
+      </c>
+      <c r="E66">
+        <v>5453</v>
+      </c>
+      <c r="F66">
+        <v>5015</v>
+      </c>
+      <c r="G66">
+        <v>22423</v>
+      </c>
+      <c r="H66">
+        <v>97578</v>
+      </c>
+      <c r="I66">
+        <v>1557</v>
+      </c>
+      <c r="J66">
+        <v>25960</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>12672</v>
+      </c>
+      <c r="O66">
+        <v>48085</v>
+      </c>
+      <c r="P66">
+        <v>32186</v>
+      </c>
+      <c r="Q66">
+        <v>-186</v>
+      </c>
+      <c r="R66">
+        <v>42762</v>
+      </c>
+      <c r="S66">
+        <v>88000</v>
+      </c>
+      <c r="T66">
+        <v>49493</v>
+      </c>
+      <c r="U66">
+        <v>2768</v>
+      </c>
+      <c r="V66">
+        <v>2085</v>
+      </c>
+      <c r="W66">
+        <v>-590</v>
+      </c>
+      <c r="X66">
+        <v>-1319</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-583</v>
+      </c>
+      <c r="AA66">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1215</v>
+      </c>
+      <c r="D67">
+        <v>7916</v>
+      </c>
+      <c r="E67">
+        <v>5591</v>
+      </c>
+      <c r="F67">
+        <v>5490</v>
+      </c>
+      <c r="G67">
+        <v>26956</v>
+      </c>
+      <c r="H67">
+        <v>99948</v>
+      </c>
+      <c r="I67">
+        <v>1555</v>
+      </c>
+      <c r="J67">
+        <v>25909</v>
+      </c>
+      <c r="K67">
+        <v>1339</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>13043</v>
+      </c>
+      <c r="O67">
+        <v>49618</v>
+      </c>
+      <c r="P67">
+        <v>33452</v>
+      </c>
+      <c r="Q67">
+        <v>2199</v>
+      </c>
+      <c r="R67">
+        <v>42853</v>
+      </c>
+      <c r="S67">
+        <v>102688</v>
+      </c>
+      <c r="T67">
+        <v>50330</v>
+      </c>
+      <c r="U67">
+        <v>4967</v>
+      </c>
+      <c r="V67">
+        <v>1773</v>
+      </c>
+      <c r="W67">
+        <v>-594</v>
+      </c>
+      <c r="X67">
+        <v>687</v>
+      </c>
+      <c r="Y67">
+        <v>23</v>
+      </c>
+      <c r="Z67">
+        <v>53</v>
+      </c>
+      <c r="AA67">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42944</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1016</v>
+      </c>
+      <c r="D68">
+        <v>7390</v>
+      </c>
+      <c r="E68">
+        <v>5784</v>
+      </c>
+      <c r="F68">
+        <v>5043</v>
+      </c>
+      <c r="G68">
+        <v>24779</v>
+      </c>
+      <c r="H68">
+        <v>100250</v>
+      </c>
+      <c r="I68">
+        <v>1759</v>
+      </c>
+      <c r="J68">
+        <v>25940</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-8</v>
+      </c>
+      <c r="N68">
+        <v>15148</v>
+      </c>
+      <c r="O68">
+        <v>49463</v>
+      </c>
+      <c r="P68">
+        <v>34021</v>
+      </c>
+      <c r="Q68">
+        <v>-276</v>
+      </c>
+      <c r="R68">
+        <v>42944</v>
+      </c>
+      <c r="S68">
+        <v>84000</v>
+      </c>
+      <c r="T68">
+        <v>50787</v>
+      </c>
+      <c r="U68">
+        <v>4691</v>
+      </c>
+      <c r="V68">
+        <v>737</v>
+      </c>
+      <c r="W68">
+        <v>-625</v>
+      </c>
+      <c r="X68">
+        <v>-1141</v>
+      </c>
+      <c r="Y68">
+        <v>23</v>
+      </c>
+      <c r="Z68">
+        <v>356</v>
+      </c>
+      <c r="AA68">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>2017</v>
+      </c>
+      <c r="D69">
+        <v>7050</v>
+      </c>
+      <c r="E69">
+        <v>5752</v>
+      </c>
+      <c r="F69">
+        <v>4951</v>
+      </c>
+      <c r="G69">
+        <v>25162</v>
+      </c>
+      <c r="H69">
+        <v>94458</v>
+      </c>
+      <c r="I69">
+        <v>1718</v>
+      </c>
+      <c r="J69">
+        <v>25927</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>10496</v>
+      </c>
+      <c r="O69">
+        <v>42880</v>
+      </c>
+      <c r="P69">
+        <v>29080</v>
+      </c>
+      <c r="Q69">
+        <v>838</v>
+      </c>
+      <c r="R69">
+        <v>43035</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>51578</v>
+      </c>
+      <c r="U69">
+        <v>5529</v>
+      </c>
+      <c r="V69">
+        <v>907</v>
+      </c>
+      <c r="W69">
+        <v>-622</v>
+      </c>
+      <c r="X69">
+        <v>-6136</v>
+      </c>
+      <c r="Y69">
+        <v>22</v>
+      </c>
+      <c r="Z69">
+        <v>313</v>
+      </c>
+      <c r="AA69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-1389</v>
+      </c>
+      <c r="D70">
+        <v>7369</v>
+      </c>
+      <c r="E70">
+        <v>5775</v>
+      </c>
+      <c r="F70">
+        <v>5188</v>
+      </c>
+      <c r="G70">
+        <v>26607</v>
+      </c>
+      <c r="H70">
+        <v>95800</v>
+      </c>
+      <c r="I70">
+        <v>1809</v>
+      </c>
+      <c r="J70">
+        <v>25909</v>
+      </c>
+      <c r="K70">
+        <v>504</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>10933</v>
+      </c>
+      <c r="O70">
+        <v>45460</v>
+      </c>
+      <c r="P70">
+        <v>28833</v>
+      </c>
+      <c r="Q70">
+        <v>829</v>
+      </c>
+      <c r="R70">
+        <v>43126</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>50340</v>
+      </c>
+      <c r="U70">
+        <v>6358</v>
+      </c>
+      <c r="V70">
+        <v>2002</v>
+      </c>
+      <c r="W70">
+        <v>-623</v>
+      </c>
+      <c r="X70">
+        <v>-849</v>
+      </c>
+      <c r="Y70">
+        <v>22</v>
+      </c>
+      <c r="Z70">
+        <v>-88</v>
+      </c>
+      <c r="AA70">
+        <v>-1389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1367</v>
+      </c>
+      <c r="D71">
+        <v>8144</v>
+      </c>
+      <c r="E71">
+        <v>5987</v>
+      </c>
+      <c r="F71">
+        <v>5761</v>
+      </c>
+      <c r="G71">
+        <v>24974</v>
+      </c>
+      <c r="H71">
+        <v>91403</v>
+      </c>
+      <c r="I71">
+        <v>1628</v>
+      </c>
+      <c r="J71">
+        <v>23698</v>
+      </c>
+      <c r="K71">
+        <v>1053</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>8363</v>
+      </c>
+      <c r="O71">
+        <v>40674</v>
+      </c>
+      <c r="P71">
+        <v>25777</v>
+      </c>
+      <c r="Q71">
+        <v>-2689</v>
+      </c>
+      <c r="R71">
+        <v>43217</v>
+      </c>
+      <c r="S71">
+        <v>98003</v>
+      </c>
+      <c r="T71">
+        <v>50729</v>
+      </c>
+      <c r="U71">
+        <v>3669</v>
+      </c>
+      <c r="V71">
+        <v>1038</v>
+      </c>
+      <c r="W71">
+        <v>-624</v>
+      </c>
+      <c r="X71">
+        <v>-3828</v>
+      </c>
+      <c r="Y71">
+        <v>21</v>
+      </c>
+      <c r="Z71">
+        <v>446</v>
+      </c>
+      <c r="AA71">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43308</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1075</v>
+      </c>
+      <c r="D72">
+        <v>7384</v>
+      </c>
+      <c r="E72">
+        <v>5674</v>
+      </c>
+      <c r="F72">
+        <v>5195</v>
+      </c>
+      <c r="G72">
+        <v>22460</v>
+      </c>
+      <c r="H72">
+        <v>89721</v>
+      </c>
+      <c r="I72">
+        <v>1789</v>
+      </c>
+      <c r="J72">
+        <v>23675</v>
+      </c>
+      <c r="K72">
+        <v>224</v>
+      </c>
+      <c r="L72">
+        <v>-505</v>
+      </c>
+      <c r="M72">
+        <v>-12</v>
+      </c>
+      <c r="N72">
+        <v>9112</v>
+      </c>
+      <c r="O72">
+        <v>39392</v>
+      </c>
+      <c r="P72">
+        <v>25244</v>
+      </c>
+      <c r="Q72">
+        <v>711</v>
+      </c>
+      <c r="R72">
+        <v>43308</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>50329</v>
+      </c>
+      <c r="U72">
+        <v>4380</v>
+      </c>
+      <c r="V72">
+        <v>1702</v>
+      </c>
+      <c r="W72">
+        <v>-677</v>
+      </c>
+      <c r="X72">
+        <v>-1573</v>
+      </c>
+      <c r="Y72">
+        <v>20</v>
+      </c>
+      <c r="Z72">
+        <v>1038</v>
+      </c>
+      <c r="AA72">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43399</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1115</v>
+      </c>
+      <c r="D73">
+        <v>7481</v>
+      </c>
+      <c r="E73">
+        <v>5743</v>
+      </c>
+      <c r="F73">
+        <v>5300</v>
+      </c>
+      <c r="G73">
+        <v>21653</v>
+      </c>
+      <c r="H73">
+        <v>88150</v>
+      </c>
+      <c r="I73">
+        <v>1742</v>
+      </c>
+      <c r="J73">
+        <v>23669</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>8463</v>
+      </c>
+      <c r="O73">
+        <v>38436</v>
+      </c>
+      <c r="P73">
+        <v>25037</v>
+      </c>
+      <c r="Q73">
+        <v>-469</v>
+      </c>
+      <c r="R73">
+        <v>43399</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>49714</v>
+      </c>
+      <c r="U73">
+        <v>3911</v>
+      </c>
+      <c r="V73">
+        <v>1163</v>
+      </c>
+      <c r="W73">
+        <v>-674</v>
+      </c>
+      <c r="X73">
+        <v>-1730</v>
+      </c>
+      <c r="Y73">
+        <v>21</v>
+      </c>
+      <c r="Z73">
+        <v>342</v>
+      </c>
+      <c r="AA73">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43490</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1269</v>
+      </c>
+      <c r="D74">
+        <v>7546</v>
+      </c>
+      <c r="E74">
+        <v>5854</v>
+      </c>
+      <c r="F74">
+        <v>5302</v>
+      </c>
+      <c r="G74">
+        <v>20877</v>
+      </c>
+      <c r="H74">
+        <v>88730</v>
+      </c>
+      <c r="I74">
+        <v>1706</v>
+      </c>
+      <c r="J74">
+        <v>23661</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>8853</v>
+      </c>
+      <c r="O74">
+        <v>38789</v>
+      </c>
+      <c r="P74">
+        <v>25041</v>
+      </c>
+      <c r="Q74">
+        <v>-208</v>
+      </c>
+      <c r="R74">
+        <v>43490</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>49941</v>
+      </c>
+      <c r="U74">
+        <v>3703</v>
+      </c>
+      <c r="V74">
+        <v>2055</v>
+      </c>
+      <c r="W74">
+        <v>-671</v>
+      </c>
+      <c r="X74">
+        <v>-1268</v>
+      </c>
+      <c r="Y74">
+        <v>21</v>
+      </c>
+      <c r="Z74">
+        <v>792</v>
+      </c>
+      <c r="AA74">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1265</v>
+      </c>
+      <c r="D75">
+        <v>8146</v>
+      </c>
+      <c r="E75">
+        <v>6222</v>
+      </c>
+      <c r="F75">
+        <v>5696</v>
+      </c>
+      <c r="G75">
+        <v>24084</v>
+      </c>
+      <c r="H75">
+        <v>89694</v>
+      </c>
+      <c r="I75">
+        <v>1953</v>
+      </c>
+      <c r="J75">
+        <v>24476</v>
+      </c>
+      <c r="K75">
+        <v>332</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6987</v>
+      </c>
+      <c r="O75">
+        <v>39482</v>
+      </c>
+      <c r="P75">
+        <v>25324</v>
+      </c>
+      <c r="Q75">
+        <v>690</v>
+      </c>
+      <c r="R75">
+        <v>43581</v>
+      </c>
+      <c r="S75">
+        <v>101013</v>
+      </c>
+      <c r="T75">
+        <v>50212</v>
+      </c>
+      <c r="U75">
+        <v>4393</v>
+      </c>
+      <c r="V75">
+        <v>2087</v>
+      </c>
+      <c r="W75">
+        <v>-671</v>
+      </c>
+      <c r="X75">
+        <v>-860</v>
+      </c>
+      <c r="Y75">
+        <v>10</v>
+      </c>
+      <c r="Z75">
+        <v>-21</v>
+      </c>
+      <c r="AA75">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>864</v>
+      </c>
+      <c r="D76">
+        <v>7493</v>
+      </c>
+      <c r="E76">
+        <v>5894</v>
+      </c>
+      <c r="F76">
+        <v>5162</v>
+      </c>
+      <c r="G76">
+        <v>22705</v>
+      </c>
+      <c r="H76">
+        <v>91268</v>
+      </c>
+      <c r="I76">
+        <v>1906</v>
+      </c>
+      <c r="J76">
+        <v>24772</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-5035</v>
+      </c>
+      <c r="N76">
+        <v>8518</v>
+      </c>
+      <c r="O76">
+        <v>40771</v>
+      </c>
+      <c r="P76">
+        <v>27240</v>
+      </c>
+      <c r="Q76">
+        <v>687</v>
+      </c>
+      <c r="R76">
+        <v>43672</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>50497</v>
+      </c>
+      <c r="U76">
+        <v>5080</v>
+      </c>
+      <c r="V76">
+        <v>1510</v>
+      </c>
+      <c r="W76">
+        <v>-724</v>
+      </c>
+      <c r="X76">
+        <v>-274</v>
+      </c>
+      <c r="Y76">
+        <v>827</v>
+      </c>
+      <c r="Z76">
+        <v>-100</v>
+      </c>
+      <c r="AA76">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1364</v>
+      </c>
+      <c r="D77">
+        <v>7706</v>
+      </c>
+      <c r="E77">
+        <v>6118</v>
+      </c>
+      <c r="F77">
+        <v>5344</v>
+      </c>
+      <c r="G77">
+        <v>22653</v>
+      </c>
+      <c r="H77">
+        <v>91053</v>
+      </c>
+      <c r="I77">
+        <v>1965</v>
+      </c>
+      <c r="J77">
+        <v>24725</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>8170</v>
+      </c>
+      <c r="O77">
+        <v>40334</v>
+      </c>
+      <c r="P77">
+        <v>26637</v>
+      </c>
+      <c r="Q77">
+        <v>-1118</v>
+      </c>
+      <c r="R77">
+        <v>43763</v>
+      </c>
+      <c r="S77">
+        <v>90000</v>
+      </c>
+      <c r="T77">
+        <v>50719</v>
+      </c>
+      <c r="U77">
+        <v>3962</v>
+      </c>
+      <c r="V77">
+        <v>1867</v>
+      </c>
+      <c r="W77">
+        <v>-723</v>
+      </c>
+      <c r="X77">
+        <v>-1741</v>
+      </c>
+      <c r="Y77">
+        <v>861</v>
+      </c>
+      <c r="Z77">
+        <v>-866</v>
+      </c>
+      <c r="AA77">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1915</v>
+      </c>
+      <c r="D78">
+        <v>7717</v>
+      </c>
+      <c r="E78">
+        <v>6248</v>
+      </c>
+      <c r="F78">
+        <v>5367</v>
+      </c>
+      <c r="G78">
+        <v>24043</v>
+      </c>
+      <c r="H78">
+        <v>92822</v>
+      </c>
+      <c r="I78">
+        <v>1945</v>
+      </c>
+      <c r="J78">
+        <v>24685</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8735</v>
+      </c>
+      <c r="O78">
+        <v>40869</v>
+      </c>
+      <c r="P78">
+        <v>26596</v>
+      </c>
+      <c r="Q78">
+        <v>-253</v>
+      </c>
+      <c r="R78">
+        <v>43854</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>51953</v>
+      </c>
+      <c r="U78">
+        <v>3709</v>
+      </c>
+      <c r="V78">
+        <v>2407</v>
+      </c>
+      <c r="W78">
+        <v>-723</v>
+      </c>
+      <c r="X78">
+        <v>-873</v>
+      </c>
+      <c r="Y78">
+        <v>898</v>
+      </c>
+      <c r="Z78">
+        <v>-1492</v>
+      </c>
+      <c r="AA78">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>816</v>
+      </c>
+      <c r="D79">
+        <v>5997</v>
+      </c>
+      <c r="E79">
+        <v>4645</v>
+      </c>
+      <c r="F79">
+        <v>3771</v>
+      </c>
+      <c r="G79">
+        <v>25517</v>
+      </c>
+      <c r="H79">
+        <v>90689</v>
+      </c>
+      <c r="I79">
+        <v>1996</v>
+      </c>
+      <c r="J79">
+        <v>21976</v>
+      </c>
+      <c r="K79">
+        <v>325</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8882</v>
+      </c>
+      <c r="O79">
+        <v>39647</v>
+      </c>
+      <c r="P79">
+        <v>25742</v>
+      </c>
+      <c r="Q79">
+        <v>431</v>
+      </c>
+      <c r="R79">
+        <v>43945</v>
+      </c>
+      <c r="S79">
+        <v>104950</v>
+      </c>
+      <c r="T79">
+        <v>51042</v>
+      </c>
+      <c r="U79">
+        <v>4140</v>
+      </c>
+      <c r="V79">
+        <v>1450</v>
+      </c>
+      <c r="W79">
+        <v>-724</v>
+      </c>
+      <c r="X79">
+        <v>-1310</v>
+      </c>
+      <c r="Y79">
+        <v>819</v>
+      </c>
+      <c r="Z79">
+        <v>993</v>
+      </c>
+      <c r="AA79">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>487</v>
+      </c>
+      <c r="D80">
+        <v>6507</v>
+      </c>
+      <c r="E80">
+        <v>4876</v>
+      </c>
+      <c r="F80">
+        <v>4029</v>
+      </c>
+      <c r="G80">
+        <v>24509</v>
+      </c>
+      <c r="H80">
+        <v>93906</v>
+      </c>
+      <c r="I80">
+        <v>1720</v>
+      </c>
+      <c r="J80">
+        <v>22822</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>-16</v>
+      </c>
+      <c r="M80">
+        <v>-11</v>
+      </c>
+      <c r="N80">
+        <v>13086</v>
+      </c>
+      <c r="O80">
+        <v>43463</v>
+      </c>
+      <c r="P80">
+        <v>28690</v>
+      </c>
+      <c r="Q80">
+        <v>2359</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>90000</v>
+      </c>
+      <c r="T80">
+        <v>50443</v>
+      </c>
+      <c r="U80">
+        <v>6499</v>
+      </c>
+      <c r="V80">
+        <v>278</v>
+      </c>
+      <c r="W80">
+        <v>-778</v>
+      </c>
+      <c r="X80">
+        <v>1959</v>
+      </c>
+      <c r="Y80">
+        <v>45</v>
+      </c>
+      <c r="Z80">
+        <v>358</v>
+      </c>
+      <c r="AA80">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>489</v>
+      </c>
+      <c r="D81">
+        <v>7647</v>
+      </c>
+      <c r="E81">
+        <v>5348</v>
+      </c>
+      <c r="F81">
+        <v>4974</v>
+      </c>
+      <c r="G81">
+        <v>26036</v>
+      </c>
+      <c r="H81">
+        <v>95886</v>
+      </c>
+      <c r="I81">
+        <v>1902</v>
+      </c>
+      <c r="J81">
+        <v>25911</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>12071</v>
+      </c>
+      <c r="O81">
+        <v>45570</v>
+      </c>
+      <c r="P81">
+        <v>30008</v>
+      </c>
+      <c r="Q81">
+        <v>-79</v>
+      </c>
+      <c r="R81">
+        <v>44134</v>
+      </c>
+      <c r="S81">
+        <v>90000</v>
+      </c>
+      <c r="T81">
+        <v>50316</v>
+      </c>
+      <c r="U81">
+        <v>6420</v>
+      </c>
+      <c r="V81">
+        <v>1861</v>
+      </c>
+      <c r="W81">
+        <v>-780</v>
+      </c>
+      <c r="X81">
+        <v>32</v>
+      </c>
+      <c r="Y81">
+        <v>56</v>
+      </c>
+      <c r="Z81">
+        <v>-1381</v>
+      </c>
+      <c r="AA81">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>1270</v>
+      </c>
+      <c r="D82">
         <v>7775</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>5215</v>
       </c>
-      <c r="F42">
-        <v>5195</v>
-      </c>
-      <c r="G42">
+      <c r="F82">
+        <v>5190</v>
+      </c>
+      <c r="G82">
         <v>26348</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>97270</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1816</v>
       </c>
-      <c r="J42">
-        <v>26502</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>26437</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>12534</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>46342</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>30323</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1343</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44225</v>
       </c>
-      <c r="S42">
-        <v>90000</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>50928</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5077</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>2356</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-781</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-998</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>65</v>
+      </c>
+      <c r="Z82">
         <v>-1672</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1270</v>
       </c>
     </row>
